--- a/Capstone 2 Data Wrangling/DataWrangling2.0.xlsx
+++ b/Capstone 2 Data Wrangling/DataWrangling2.0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CI273"/>
+  <dimension ref="A1:CH273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -841,30 +841,25 @@
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>Pos</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>PF</t>
         </is>
@@ -1120,10 +1115,8 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD2" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
+      <c r="CD2" t="n">
+        <v>0</v>
       </c>
       <c r="CE2" t="n">
         <v>0</v>
@@ -1135,9 +1128,6 @@
         <v>0</v>
       </c>
       <c r="CH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1391,10 +1381,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD3" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
+      <c r="CD3" t="n">
+        <v>0</v>
       </c>
       <c r="CE3" t="n">
         <v>0</v>
@@ -1406,9 +1394,6 @@
         <v>0</v>
       </c>
       <c r="CH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1662,24 +1647,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD4" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
+      <c r="CD4" t="n">
+        <v>0</v>
       </c>
       <c r="CE4" t="n">
         <v>0</v>
       </c>
       <c r="CF4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1933,24 +1913,19 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD5" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
+      <c r="CD5" t="n">
+        <v>0</v>
       </c>
       <c r="CE5" t="n">
         <v>0</v>
       </c>
       <c r="CF5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2204,10 +2179,8 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD6" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD6" t="n">
+        <v>0</v>
       </c>
       <c r="CE6" t="n">
         <v>0</v>
@@ -2216,12 +2189,9 @@
         <v>0</v>
       </c>
       <c r="CG6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH6" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2475,10 +2445,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD7" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD7" t="n">
+        <v>0</v>
       </c>
       <c r="CE7" t="n">
         <v>0</v>
@@ -2487,12 +2455,9 @@
         <v>0</v>
       </c>
       <c r="CG7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH7" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2746,10 +2711,8 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD8" t="n">
+        <v>0</v>
       </c>
       <c r="CE8" t="n">
         <v>0</v>
@@ -2758,12 +2721,9 @@
         <v>0</v>
       </c>
       <c r="CG8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH8" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3017,10 +2977,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD9" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD9" t="n">
+        <v>0</v>
       </c>
       <c r="CE9" t="n">
         <v>0</v>
@@ -3029,12 +2987,9 @@
         <v>0</v>
       </c>
       <c r="CG9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH9" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3288,13 +3243,11 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD10" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD10" t="n">
+        <v>1</v>
       </c>
       <c r="CE10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF10" t="n">
         <v>0</v>
@@ -3303,9 +3256,6 @@
         <v>0</v>
       </c>
       <c r="CH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3559,24 +3509,19 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD11" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="CD11" t="n">
+        <v>0</v>
       </c>
       <c r="CE11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG11" t="n">
         <v>0</v>
       </c>
       <c r="CH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3830,24 +3775,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD12" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="CD12" t="n">
+        <v>0</v>
       </c>
       <c r="CE12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG12" t="n">
         <v>0</v>
       </c>
       <c r="CH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4101,24 +4041,19 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD13" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="CD13" t="n">
+        <v>0</v>
       </c>
       <c r="CE13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG13" t="n">
         <v>0</v>
       </c>
       <c r="CH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4372,10 +4307,8 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD14" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD14" t="n">
+        <v>0</v>
       </c>
       <c r="CE14" t="n">
         <v>0</v>
@@ -4384,12 +4317,9 @@
         <v>0</v>
       </c>
       <c r="CG14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH14" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4643,10 +4573,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD15" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD15" t="n">
+        <v>0</v>
       </c>
       <c r="CE15" t="n">
         <v>0</v>
@@ -4655,12 +4583,9 @@
         <v>0</v>
       </c>
       <c r="CG15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH15" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4914,10 +4839,8 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD16" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD16" t="n">
+        <v>0</v>
       </c>
       <c r="CE16" t="n">
         <v>0</v>
@@ -4926,12 +4849,9 @@
         <v>0</v>
       </c>
       <c r="CG16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH16" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5185,10 +5105,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD17" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD17" t="n">
+        <v>0</v>
       </c>
       <c r="CE17" t="n">
         <v>0</v>
@@ -5197,12 +5115,9 @@
         <v>0</v>
       </c>
       <c r="CG17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH17" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5456,10 +5371,8 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD18" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD18" t="n">
+        <v>0</v>
       </c>
       <c r="CE18" t="n">
         <v>0</v>
@@ -5468,12 +5381,9 @@
         <v>0</v>
       </c>
       <c r="CG18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5727,10 +5637,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD19" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD19" t="n">
+        <v>0</v>
       </c>
       <c r="CE19" t="n">
         <v>0</v>
@@ -5739,12 +5647,9 @@
         <v>0</v>
       </c>
       <c r="CG19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5998,10 +5903,8 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD20" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD20" t="n">
+        <v>0</v>
       </c>
       <c r="CE20" t="n">
         <v>0</v>
@@ -6010,12 +5913,9 @@
         <v>0</v>
       </c>
       <c r="CG20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH20" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6269,10 +6169,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD21" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
+      <c r="CD21" t="n">
+        <v>0</v>
       </c>
       <c r="CE21" t="n">
         <v>0</v>
@@ -6284,9 +6182,6 @@
         <v>0</v>
       </c>
       <c r="CH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6540,10 +6435,8 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD22" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD22" t="n">
+        <v>0</v>
       </c>
       <c r="CE22" t="n">
         <v>0</v>
@@ -6552,12 +6445,9 @@
         <v>0</v>
       </c>
       <c r="CG22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH22" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6811,10 +6701,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD23" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD23" t="n">
+        <v>0</v>
       </c>
       <c r="CE23" t="n">
         <v>0</v>
@@ -6823,12 +6711,9 @@
         <v>0</v>
       </c>
       <c r="CG23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH23" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7082,24 +6967,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD24" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="CD24" t="n">
+        <v>0</v>
       </c>
       <c r="CE24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG24" t="n">
         <v>0</v>
       </c>
       <c r="CH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7353,24 +7233,19 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD25" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="CD25" t="n">
+        <v>0</v>
       </c>
       <c r="CE25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG25" t="n">
         <v>0</v>
       </c>
       <c r="CH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7624,24 +7499,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD26" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="CD26" t="n">
+        <v>0</v>
       </c>
       <c r="CE26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG26" t="n">
         <v>0</v>
       </c>
       <c r="CH26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7895,24 +7765,19 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD27" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="CD27" t="n">
+        <v>0</v>
       </c>
       <c r="CE27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG27" t="n">
         <v>0</v>
       </c>
       <c r="CH27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8166,10 +8031,8 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD28" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
+      <c r="CD28" t="n">
+        <v>0</v>
       </c>
       <c r="CE28" t="n">
         <v>0</v>
@@ -8181,9 +8044,6 @@
         <v>0</v>
       </c>
       <c r="CH28" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8437,10 +8297,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD29" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
+      <c r="CD29" t="n">
+        <v>0</v>
       </c>
       <c r="CE29" t="n">
         <v>0</v>
@@ -8452,9 +8310,6 @@
         <v>0</v>
       </c>
       <c r="CH29" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8708,24 +8563,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD30" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
+      <c r="CD30" t="n">
+        <v>0</v>
       </c>
       <c r="CE30" t="n">
         <v>0</v>
       </c>
       <c r="CF30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH30" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8979,24 +8829,19 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD31" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
+      <c r="CD31" t="n">
+        <v>0</v>
       </c>
       <c r="CE31" t="n">
         <v>0</v>
       </c>
       <c r="CF31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH31" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9250,13 +9095,11 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD32" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD32" t="n">
+        <v>1</v>
       </c>
       <c r="CE32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF32" t="n">
         <v>0</v>
@@ -9265,9 +9108,6 @@
         <v>0</v>
       </c>
       <c r="CH32" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9521,13 +9361,11 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD33" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD33" t="n">
+        <v>1</v>
       </c>
       <c r="CE33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF33" t="n">
         <v>0</v>
@@ -9536,9 +9374,6 @@
         <v>0</v>
       </c>
       <c r="CH33" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9792,24 +9627,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD34" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="CD34" t="n">
+        <v>0</v>
       </c>
       <c r="CE34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG34" t="n">
         <v>0</v>
       </c>
       <c r="CH34" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10063,24 +9893,19 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD35" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="CD35" t="n">
+        <v>0</v>
       </c>
       <c r="CE35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG35" t="n">
         <v>0</v>
       </c>
       <c r="CH35" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10334,10 +10159,8 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD36" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD36" t="n">
+        <v>0</v>
       </c>
       <c r="CE36" t="n">
         <v>0</v>
@@ -10346,12 +10169,9 @@
         <v>0</v>
       </c>
       <c r="CG36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH36" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10605,10 +10425,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD37" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
+      <c r="CD37" t="n">
+        <v>0</v>
       </c>
       <c r="CE37" t="n">
         <v>0</v>
@@ -10620,9 +10438,6 @@
         <v>0</v>
       </c>
       <c r="CH37" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10876,24 +10691,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD38" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
+      <c r="CD38" t="n">
+        <v>0</v>
       </c>
       <c r="CE38" t="n">
         <v>0</v>
       </c>
       <c r="CF38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH38" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11147,24 +10957,19 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD39" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
+      <c r="CD39" t="n">
+        <v>0</v>
       </c>
       <c r="CE39" t="n">
         <v>0</v>
       </c>
       <c r="CF39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH39" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11418,10 +11223,8 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD40" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD40" t="n">
+        <v>0</v>
       </c>
       <c r="CE40" t="n">
         <v>0</v>
@@ -11430,12 +11233,9 @@
         <v>0</v>
       </c>
       <c r="CG40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH40" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11689,10 +11489,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD41" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD41" t="n">
+        <v>0</v>
       </c>
       <c r="CE41" t="n">
         <v>0</v>
@@ -11701,12 +11499,9 @@
         <v>0</v>
       </c>
       <c r="CG41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH41" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11960,10 +11755,8 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD42" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD42" t="n">
+        <v>0</v>
       </c>
       <c r="CE42" t="n">
         <v>0</v>
@@ -11972,12 +11765,9 @@
         <v>0</v>
       </c>
       <c r="CG42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH42" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12231,10 +12021,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD43" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD43" t="n">
+        <v>0</v>
       </c>
       <c r="CE43" t="n">
         <v>0</v>
@@ -12243,12 +12031,9 @@
         <v>0</v>
       </c>
       <c r="CG43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH43" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12502,24 +12287,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD44" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
+      <c r="CD44" t="n">
+        <v>0</v>
       </c>
       <c r="CE44" t="n">
         <v>0</v>
       </c>
       <c r="CF44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH44" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12773,24 +12553,19 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD45" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
+      <c r="CD45" t="n">
+        <v>0</v>
       </c>
       <c r="CE45" t="n">
         <v>0</v>
       </c>
       <c r="CF45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH45" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13044,13 +12819,11 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD46" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD46" t="n">
+        <v>1</v>
       </c>
       <c r="CE46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF46" t="n">
         <v>0</v>
@@ -13059,9 +12832,6 @@
         <v>0</v>
       </c>
       <c r="CH46" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13315,13 +13085,11 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD47" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD47" t="n">
+        <v>1</v>
       </c>
       <c r="CE47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF47" t="n">
         <v>0</v>
@@ -13330,9 +13098,6 @@
         <v>0</v>
       </c>
       <c r="CH47" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13586,24 +13351,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD48" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="CD48" t="n">
+        <v>0</v>
       </c>
       <c r="CE48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG48" t="n">
         <v>0</v>
       </c>
       <c r="CH48" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13857,13 +13617,11 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD49" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD49" t="n">
+        <v>1</v>
       </c>
       <c r="CE49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF49" t="n">
         <v>0</v>
@@ -13872,9 +13630,6 @@
         <v>0</v>
       </c>
       <c r="CH49" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14128,24 +13883,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD50" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
+      <c r="CD50" t="n">
+        <v>0</v>
       </c>
       <c r="CE50" t="n">
         <v>0</v>
       </c>
       <c r="CF50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14399,24 +14149,19 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD51" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
+      <c r="CD51" t="n">
+        <v>0</v>
       </c>
       <c r="CE51" t="n">
         <v>0</v>
       </c>
       <c r="CF51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH51" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14670,24 +14415,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD52" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
+      <c r="CD52" t="n">
+        <v>0</v>
       </c>
       <c r="CE52" t="n">
         <v>0</v>
       </c>
       <c r="CF52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH52" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14941,24 +14681,19 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD53" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
+      <c r="CD53" t="n">
+        <v>0</v>
       </c>
       <c r="CE53" t="n">
         <v>0</v>
       </c>
       <c r="CF53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH53" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15212,24 +14947,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD54" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="CD54" t="n">
+        <v>0</v>
       </c>
       <c r="CE54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG54" t="n">
         <v>0</v>
       </c>
       <c r="CH54" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15483,24 +15213,19 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD55" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="CD55" t="n">
+        <v>0</v>
       </c>
       <c r="CE55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG55" t="n">
         <v>0</v>
       </c>
       <c r="CH55" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15754,13 +15479,11 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD56" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD56" t="n">
+        <v>1</v>
       </c>
       <c r="CE56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF56" t="n">
         <v>0</v>
@@ -15769,9 +15492,6 @@
         <v>0</v>
       </c>
       <c r="CH56" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16025,13 +15745,11 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD57" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD57" t="n">
+        <v>1</v>
       </c>
       <c r="CE57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF57" t="n">
         <v>0</v>
@@ -16040,9 +15758,6 @@
         <v>0</v>
       </c>
       <c r="CH57" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16296,10 +16011,8 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD58" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD58" t="n">
+        <v>0</v>
       </c>
       <c r="CE58" t="n">
         <v>0</v>
@@ -16308,12 +16021,9 @@
         <v>0</v>
       </c>
       <c r="CG58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH58" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16567,10 +16277,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD59" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD59" t="n">
+        <v>0</v>
       </c>
       <c r="CE59" t="n">
         <v>0</v>
@@ -16579,12 +16287,9 @@
         <v>0</v>
       </c>
       <c r="CG59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH59" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16838,10 +16543,8 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD60" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
+      <c r="CD60" t="n">
+        <v>0</v>
       </c>
       <c r="CE60" t="n">
         <v>0</v>
@@ -16853,9 +16556,6 @@
         <v>0</v>
       </c>
       <c r="CH60" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17109,10 +16809,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD61" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
+      <c r="CD61" t="n">
+        <v>0</v>
       </c>
       <c r="CE61" t="n">
         <v>0</v>
@@ -17124,9 +16822,6 @@
         <v>0</v>
       </c>
       <c r="CH61" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17380,10 +17075,8 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD62" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD62" t="n">
+        <v>0</v>
       </c>
       <c r="CE62" t="n">
         <v>0</v>
@@ -17392,12 +17085,9 @@
         <v>0</v>
       </c>
       <c r="CG62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH62" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17651,10 +17341,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD63" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD63" t="n">
+        <v>0</v>
       </c>
       <c r="CE63" t="n">
         <v>0</v>
@@ -17663,12 +17351,9 @@
         <v>0</v>
       </c>
       <c r="CG63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH63" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17922,24 +17607,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD64" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
+      <c r="CD64" t="n">
+        <v>0</v>
       </c>
       <c r="CE64" t="n">
         <v>0</v>
       </c>
       <c r="CF64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH64" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18193,13 +17873,11 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD65" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD65" t="n">
+        <v>1</v>
       </c>
       <c r="CE65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF65" t="n">
         <v>0</v>
@@ -18208,9 +17886,6 @@
         <v>0</v>
       </c>
       <c r="CH65" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18464,24 +18139,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD66" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
+      <c r="CD66" t="n">
+        <v>0</v>
       </c>
       <c r="CE66" t="n">
         <v>0</v>
       </c>
       <c r="CF66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH66" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18735,24 +18405,19 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD67" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
+      <c r="CD67" t="n">
+        <v>0</v>
       </c>
       <c r="CE67" t="n">
         <v>0</v>
       </c>
       <c r="CF67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH67" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19006,13 +18671,11 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD68" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD68" t="n">
+        <v>1</v>
       </c>
       <c r="CE68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF68" t="n">
         <v>0</v>
@@ -19021,9 +18684,6 @@
         <v>0</v>
       </c>
       <c r="CH68" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19277,13 +18937,11 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD69" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD69" t="n">
+        <v>1</v>
       </c>
       <c r="CE69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF69" t="n">
         <v>0</v>
@@ -19292,9 +18950,6 @@
         <v>0</v>
       </c>
       <c r="CH69" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19548,13 +19203,11 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD70" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD70" t="n">
+        <v>1</v>
       </c>
       <c r="CE70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF70" t="n">
         <v>0</v>
@@ -19563,9 +19216,6 @@
         <v>0</v>
       </c>
       <c r="CH70" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19819,13 +19469,11 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD71" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD71" t="n">
+        <v>1</v>
       </c>
       <c r="CE71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF71" t="n">
         <v>0</v>
@@ -19834,9 +19482,6 @@
         <v>0</v>
       </c>
       <c r="CH71" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20090,24 +19735,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD72" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="CD72" t="n">
+        <v>0</v>
       </c>
       <c r="CE72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG72" t="n">
         <v>0</v>
       </c>
       <c r="CH72" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20361,24 +20001,19 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD73" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="CD73" t="n">
+        <v>0</v>
       </c>
       <c r="CE73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG73" t="n">
         <v>0</v>
       </c>
       <c r="CH73" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20632,10 +20267,8 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD74" t="inlineStr">
-        <is>
-          <t>C-PF</t>
-        </is>
+      <c r="CD74" t="n">
+        <v>0</v>
       </c>
       <c r="CE74" t="n">
         <v>0</v>
@@ -20644,12 +20277,9 @@
         <v>0</v>
       </c>
       <c r="CG74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH74" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -20903,10 +20533,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD75" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD75" t="n">
+        <v>0</v>
       </c>
       <c r="CE75" t="n">
         <v>0</v>
@@ -20915,12 +20543,9 @@
         <v>0</v>
       </c>
       <c r="CG75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH75" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21174,13 +20799,11 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD76" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD76" t="n">
+        <v>1</v>
       </c>
       <c r="CE76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF76" t="n">
         <v>0</v>
@@ -21189,9 +20812,6 @@
         <v>0</v>
       </c>
       <c r="CH76" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21445,13 +21065,11 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD77" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD77" t="n">
+        <v>1</v>
       </c>
       <c r="CE77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF77" t="n">
         <v>0</v>
@@ -21460,9 +21078,6 @@
         <v>0</v>
       </c>
       <c r="CH77" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21716,13 +21331,11 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD78" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD78" t="n">
+        <v>1</v>
       </c>
       <c r="CE78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF78" t="n">
         <v>0</v>
@@ -21731,9 +21344,6 @@
         <v>0</v>
       </c>
       <c r="CH78" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21987,13 +21597,11 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD79" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD79" t="n">
+        <v>1</v>
       </c>
       <c r="CE79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF79" t="n">
         <v>0</v>
@@ -22002,9 +21610,6 @@
         <v>0</v>
       </c>
       <c r="CH79" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22258,10 +21863,8 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD80" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
+      <c r="CD80" t="n">
+        <v>0</v>
       </c>
       <c r="CE80" t="n">
         <v>0</v>
@@ -22273,9 +21876,6 @@
         <v>0</v>
       </c>
       <c r="CH80" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -22529,10 +22129,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD81" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
+      <c r="CD81" t="n">
+        <v>0</v>
       </c>
       <c r="CE81" t="n">
         <v>0</v>
@@ -22544,9 +22142,6 @@
         <v>0</v>
       </c>
       <c r="CH81" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -22800,10 +22395,8 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD82" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
+      <c r="CD82" t="n">
+        <v>0</v>
       </c>
       <c r="CE82" t="n">
         <v>0</v>
@@ -22815,9 +22408,6 @@
         <v>0</v>
       </c>
       <c r="CH82" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -23071,10 +22661,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD83" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
+      <c r="CD83" t="n">
+        <v>0</v>
       </c>
       <c r="CE83" t="n">
         <v>0</v>
@@ -23086,9 +22674,6 @@
         <v>0</v>
       </c>
       <c r="CH83" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -23342,13 +22927,11 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD84" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD84" t="n">
+        <v>1</v>
       </c>
       <c r="CE84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF84" t="n">
         <v>0</v>
@@ -23357,9 +22940,6 @@
         <v>0</v>
       </c>
       <c r="CH84" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23613,24 +23193,19 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD85" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="CD85" t="n">
+        <v>0</v>
       </c>
       <c r="CE85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG85" t="n">
         <v>0</v>
       </c>
       <c r="CH85" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23884,13 +23459,11 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD86" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD86" t="n">
+        <v>1</v>
       </c>
       <c r="CE86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF86" t="n">
         <v>0</v>
@@ -23899,9 +23472,6 @@
         <v>0</v>
       </c>
       <c r="CH86" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24155,13 +23725,11 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD87" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD87" t="n">
+        <v>1</v>
       </c>
       <c r="CE87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF87" t="n">
         <v>0</v>
@@ -24170,9 +23738,6 @@
         <v>0</v>
       </c>
       <c r="CH87" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24426,13 +23991,11 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD88" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD88" t="n">
+        <v>1</v>
       </c>
       <c r="CE88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF88" t="n">
         <v>0</v>
@@ -24441,9 +24004,6 @@
         <v>0</v>
       </c>
       <c r="CH88" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24697,13 +24257,11 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD89" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD89" t="n">
+        <v>1</v>
       </c>
       <c r="CE89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF89" t="n">
         <v>0</v>
@@ -24712,9 +24270,6 @@
         <v>0</v>
       </c>
       <c r="CH89" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24968,24 +24523,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD90" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
+      <c r="CD90" t="n">
+        <v>0</v>
       </c>
       <c r="CE90" t="n">
         <v>0</v>
       </c>
       <c r="CF90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH90" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25239,24 +24789,19 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD91" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
+      <c r="CD91" t="n">
+        <v>0</v>
       </c>
       <c r="CE91" t="n">
         <v>0</v>
       </c>
       <c r="CF91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH91" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25510,10 +25055,8 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD92" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
+      <c r="CD92" t="n">
+        <v>0</v>
       </c>
       <c r="CE92" t="n">
         <v>0</v>
@@ -25525,9 +25068,6 @@
         <v>0</v>
       </c>
       <c r="CH92" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -25781,10 +25321,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD93" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
+      <c r="CD93" t="n">
+        <v>0</v>
       </c>
       <c r="CE93" t="n">
         <v>0</v>
@@ -25796,9 +25334,6 @@
         <v>0</v>
       </c>
       <c r="CH93" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -26052,10 +25587,8 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD94" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
+      <c r="CD94" t="n">
+        <v>0</v>
       </c>
       <c r="CE94" t="n">
         <v>0</v>
@@ -26067,9 +25600,6 @@
         <v>0</v>
       </c>
       <c r="CH94" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -26323,10 +25853,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD95" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
+      <c r="CD95" t="n">
+        <v>0</v>
       </c>
       <c r="CE95" t="n">
         <v>0</v>
@@ -26338,9 +25866,6 @@
         <v>0</v>
       </c>
       <c r="CH95" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -26594,13 +26119,11 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD96" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD96" t="n">
+        <v>1</v>
       </c>
       <c r="CE96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF96" t="n">
         <v>0</v>
@@ -26609,9 +26132,6 @@
         <v>0</v>
       </c>
       <c r="CH96" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26865,13 +26385,11 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD97" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD97" t="n">
+        <v>1</v>
       </c>
       <c r="CE97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF97" t="n">
         <v>0</v>
@@ -26880,9 +26398,6 @@
         <v>0</v>
       </c>
       <c r="CH97" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27136,10 +26651,8 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD98" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
+      <c r="CD98" t="n">
+        <v>0</v>
       </c>
       <c r="CE98" t="n">
         <v>0</v>
@@ -27151,9 +26664,6 @@
         <v>0</v>
       </c>
       <c r="CH98" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -27407,10 +26917,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD99" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
+      <c r="CD99" t="n">
+        <v>0</v>
       </c>
       <c r="CE99" t="n">
         <v>0</v>
@@ -27422,9 +26930,6 @@
         <v>0</v>
       </c>
       <c r="CH99" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -27678,10 +27183,8 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD100" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD100" t="n">
+        <v>0</v>
       </c>
       <c r="CE100" t="n">
         <v>0</v>
@@ -27690,12 +27193,9 @@
         <v>0</v>
       </c>
       <c r="CG100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH100" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27949,10 +27449,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD101" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD101" t="n">
+        <v>0</v>
       </c>
       <c r="CE101" t="n">
         <v>0</v>
@@ -27961,12 +27459,9 @@
         <v>0</v>
       </c>
       <c r="CG101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH101" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28220,24 +27715,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD102" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
+      <c r="CD102" t="n">
+        <v>0</v>
       </c>
       <c r="CE102" t="n">
         <v>0</v>
       </c>
       <c r="CF102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH102" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28491,24 +27981,19 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD103" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
+      <c r="CD103" t="n">
+        <v>0</v>
       </c>
       <c r="CE103" t="n">
         <v>0</v>
       </c>
       <c r="CF103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH103" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28762,10 +28247,8 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD104" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD104" t="n">
+        <v>0</v>
       </c>
       <c r="CE104" t="n">
         <v>0</v>
@@ -28774,12 +28257,9 @@
         <v>0</v>
       </c>
       <c r="CG104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH104" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29033,10 +28513,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD105" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD105" t="n">
+        <v>0</v>
       </c>
       <c r="CE105" t="n">
         <v>0</v>
@@ -29045,12 +28523,9 @@
         <v>0</v>
       </c>
       <c r="CG105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH105" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29304,24 +28779,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD106" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
+      <c r="CD106" t="n">
+        <v>0</v>
       </c>
       <c r="CE106" t="n">
         <v>0</v>
       </c>
       <c r="CF106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH106" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29575,24 +29045,19 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD107" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
+      <c r="CD107" t="n">
+        <v>0</v>
       </c>
       <c r="CE107" t="n">
         <v>0</v>
       </c>
       <c r="CF107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH107" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29846,10 +29311,8 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD108" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
+      <c r="CD108" t="n">
+        <v>0</v>
       </c>
       <c r="CE108" t="n">
         <v>0</v>
@@ -29861,9 +29324,6 @@
         <v>0</v>
       </c>
       <c r="CH108" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -30117,10 +29577,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD109" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
+      <c r="CD109" t="n">
+        <v>0</v>
       </c>
       <c r="CE109" t="n">
         <v>0</v>
@@ -30132,9 +29590,6 @@
         <v>0</v>
       </c>
       <c r="CH109" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -30388,24 +29843,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD110" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
+      <c r="CD110" t="n">
+        <v>0</v>
       </c>
       <c r="CE110" t="n">
         <v>0</v>
       </c>
       <c r="CF110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH110" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30659,24 +30109,19 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD111" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
+      <c r="CD111" t="n">
+        <v>0</v>
       </c>
       <c r="CE111" t="n">
         <v>0</v>
       </c>
       <c r="CF111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH111" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30930,24 +30375,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD112" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="CD112" t="n">
+        <v>0</v>
       </c>
       <c r="CE112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG112" t="n">
         <v>0</v>
       </c>
       <c r="CH112" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31201,24 +30641,19 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD113" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="CD113" t="n">
+        <v>0</v>
       </c>
       <c r="CE113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG113" t="n">
         <v>0</v>
       </c>
       <c r="CH113" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31472,24 +30907,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD114" t="inlineStr">
-        <is>
-          <t>PG-SG</t>
-        </is>
+      <c r="CD114" t="n">
+        <v>1</v>
       </c>
       <c r="CE114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH114" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31743,24 +31173,19 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD115" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
+      <c r="CD115" t="n">
+        <v>0</v>
       </c>
       <c r="CE115" t="n">
         <v>0</v>
       </c>
       <c r="CF115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH115" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32014,10 +31439,8 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD116" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
+      <c r="CD116" t="n">
+        <v>0</v>
       </c>
       <c r="CE116" t="n">
         <v>0</v>
@@ -32029,9 +31452,6 @@
         <v>0</v>
       </c>
       <c r="CH116" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -32285,10 +31705,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD117" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
+      <c r="CD117" t="n">
+        <v>0</v>
       </c>
       <c r="CE117" t="n">
         <v>0</v>
@@ -32300,9 +31718,6 @@
         <v>0</v>
       </c>
       <c r="CH117" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -32556,10 +31971,8 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD118" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD118" t="n">
+        <v>0</v>
       </c>
       <c r="CE118" t="n">
         <v>0</v>
@@ -32568,12 +31981,9 @@
         <v>0</v>
       </c>
       <c r="CG118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH118" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32827,10 +32237,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD119" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD119" t="n">
+        <v>0</v>
       </c>
       <c r="CE119" t="n">
         <v>0</v>
@@ -32839,12 +32247,9 @@
         <v>0</v>
       </c>
       <c r="CG119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH119" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33098,24 +32503,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD120" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="CD120" t="n">
+        <v>0</v>
       </c>
       <c r="CE120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG120" t="n">
         <v>0</v>
       </c>
       <c r="CH120" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33369,24 +32769,19 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD121" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="CD121" t="n">
+        <v>0</v>
       </c>
       <c r="CE121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG121" t="n">
         <v>0</v>
       </c>
       <c r="CH121" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33640,13 +33035,11 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD122" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD122" t="n">
+        <v>1</v>
       </c>
       <c r="CE122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF122" t="n">
         <v>0</v>
@@ -33655,9 +33048,6 @@
         <v>0</v>
       </c>
       <c r="CH122" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33911,13 +33301,11 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD123" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD123" t="n">
+        <v>1</v>
       </c>
       <c r="CE123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF123" t="n">
         <v>0</v>
@@ -33926,9 +33314,6 @@
         <v>0</v>
       </c>
       <c r="CH123" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34182,24 +33567,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD124" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="CD124" t="n">
+        <v>0</v>
       </c>
       <c r="CE124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG124" t="n">
         <v>0</v>
       </c>
       <c r="CH124" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34453,24 +33833,19 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD125" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="CD125" t="n">
+        <v>0</v>
       </c>
       <c r="CE125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG125" t="n">
         <v>0</v>
       </c>
       <c r="CH125" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34724,10 +34099,8 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD126" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD126" t="n">
+        <v>0</v>
       </c>
       <c r="CE126" t="n">
         <v>0</v>
@@ -34736,12 +34109,9 @@
         <v>0</v>
       </c>
       <c r="CG126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH126" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34995,10 +34365,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD127" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
+      <c r="CD127" t="n">
+        <v>0</v>
       </c>
       <c r="CE127" t="n">
         <v>0</v>
@@ -35010,9 +34378,6 @@
         <v>0</v>
       </c>
       <c r="CH127" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -35266,24 +34631,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD128" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
+      <c r="CD128" t="n">
+        <v>0</v>
       </c>
       <c r="CE128" t="n">
         <v>0</v>
       </c>
       <c r="CF128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH128" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35537,24 +34897,19 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD129" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
+      <c r="CD129" t="n">
+        <v>0</v>
       </c>
       <c r="CE129" t="n">
         <v>0</v>
       </c>
       <c r="CF129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH129" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35808,24 +35163,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD130" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="CD130" t="n">
+        <v>0</v>
       </c>
       <c r="CE130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG130" t="n">
         <v>0</v>
       </c>
       <c r="CH130" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36079,10 +35429,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD131" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
+      <c r="CD131" t="n">
+        <v>0</v>
       </c>
       <c r="CE131" t="n">
         <v>0</v>
@@ -36094,9 +35442,6 @@
         <v>0</v>
       </c>
       <c r="CH131" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -36350,24 +35695,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD132" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="CD132" t="n">
+        <v>0</v>
       </c>
       <c r="CE132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG132" t="n">
         <v>0</v>
       </c>
       <c r="CH132" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36621,24 +35961,19 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD133" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="CD133" t="n">
+        <v>0</v>
       </c>
       <c r="CE133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG133" t="n">
         <v>0</v>
       </c>
       <c r="CH133" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36892,24 +36227,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD134" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="CD134" t="n">
+        <v>0</v>
       </c>
       <c r="CE134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG134" t="n">
         <v>0</v>
       </c>
       <c r="CH134" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37163,24 +36493,19 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD135" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="CD135" t="n">
+        <v>0</v>
       </c>
       <c r="CE135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG135" t="n">
         <v>0</v>
       </c>
       <c r="CH135" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37434,10 +36759,8 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD136" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD136" t="n">
+        <v>0</v>
       </c>
       <c r="CE136" t="n">
         <v>0</v>
@@ -37446,12 +36769,9 @@
         <v>0</v>
       </c>
       <c r="CG136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH136" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37705,10 +37025,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD137" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD137" t="n">
+        <v>0</v>
       </c>
       <c r="CE137" t="n">
         <v>0</v>
@@ -37717,12 +37035,9 @@
         <v>0</v>
       </c>
       <c r="CG137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH137" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37976,10 +37291,8 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD138" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
+      <c r="CD138" t="n">
+        <v>0</v>
       </c>
       <c r="CE138" t="n">
         <v>0</v>
@@ -37991,9 +37304,6 @@
         <v>0</v>
       </c>
       <c r="CH138" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -38247,10 +37557,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD139" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
+      <c r="CD139" t="n">
+        <v>0</v>
       </c>
       <c r="CE139" t="n">
         <v>0</v>
@@ -38262,9 +37570,6 @@
         <v>0</v>
       </c>
       <c r="CH139" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -38518,13 +37823,11 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD140" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD140" t="n">
+        <v>1</v>
       </c>
       <c r="CE140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF140" t="n">
         <v>0</v>
@@ -38533,9 +37836,6 @@
         <v>0</v>
       </c>
       <c r="CH140" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -38789,24 +38089,19 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD141" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="CD141" t="n">
+        <v>0</v>
       </c>
       <c r="CE141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG141" t="n">
         <v>0</v>
       </c>
       <c r="CH141" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -39060,24 +38355,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD142" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
+      <c r="CD142" t="n">
+        <v>0</v>
       </c>
       <c r="CE142" t="n">
         <v>0</v>
       </c>
       <c r="CF142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH142" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -39331,24 +38621,19 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD143" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
+      <c r="CD143" t="n">
+        <v>0</v>
       </c>
       <c r="CE143" t="n">
         <v>0</v>
       </c>
       <c r="CF143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH143" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -39602,13 +38887,11 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD144" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD144" t="n">
+        <v>1</v>
       </c>
       <c r="CE144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF144" t="n">
         <v>0</v>
@@ -39617,9 +38900,6 @@
         <v>0</v>
       </c>
       <c r="CH144" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -39873,24 +39153,19 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD145" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
+      <c r="CD145" t="n">
+        <v>0</v>
       </c>
       <c r="CE145" t="n">
         <v>0</v>
       </c>
       <c r="CF145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH145" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -40144,24 +39419,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD146" t="inlineStr">
-        <is>
-          <t>SG-SF</t>
-        </is>
+      <c r="CD146" t="n">
+        <v>1</v>
       </c>
       <c r="CE146" t="n">
         <v>1</v>
       </c>
       <c r="CF146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG146" t="n">
         <v>0</v>
       </c>
       <c r="CH146" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -40415,24 +39685,19 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD147" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="CD147" t="n">
+        <v>0</v>
       </c>
       <c r="CE147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG147" t="n">
         <v>0</v>
       </c>
       <c r="CH147" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -40686,13 +39951,11 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD148" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD148" t="n">
+        <v>1</v>
       </c>
       <c r="CE148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF148" t="n">
         <v>0</v>
@@ -40701,9 +39964,6 @@
         <v>0</v>
       </c>
       <c r="CH148" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -40957,13 +40217,11 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD149" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD149" t="n">
+        <v>1</v>
       </c>
       <c r="CE149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF149" t="n">
         <v>0</v>
@@ -40972,9 +40230,6 @@
         <v>0</v>
       </c>
       <c r="CH149" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -41228,24 +40483,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD150" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
+      <c r="CD150" t="n">
+        <v>0</v>
       </c>
       <c r="CE150" t="n">
         <v>0</v>
       </c>
       <c r="CF150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH150" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -41499,24 +40749,19 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD151" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
+      <c r="CD151" t="n">
+        <v>0</v>
       </c>
       <c r="CE151" t="n">
         <v>0</v>
       </c>
       <c r="CF151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH151" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -41770,10 +41015,8 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD152" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
+      <c r="CD152" t="n">
+        <v>0</v>
       </c>
       <c r="CE152" t="n">
         <v>0</v>
@@ -41785,9 +41028,6 @@
         <v>0</v>
       </c>
       <c r="CH152" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -42041,10 +41281,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD153" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
+      <c r="CD153" t="n">
+        <v>0</v>
       </c>
       <c r="CE153" t="n">
         <v>0</v>
@@ -42056,9 +41294,6 @@
         <v>0</v>
       </c>
       <c r="CH153" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -42312,10 +41547,8 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD154" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD154" t="n">
+        <v>0</v>
       </c>
       <c r="CE154" t="n">
         <v>0</v>
@@ -42324,12 +41557,9 @@
         <v>0</v>
       </c>
       <c r="CG154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH154" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -42583,10 +41813,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD155" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
+      <c r="CD155" t="n">
+        <v>0</v>
       </c>
       <c r="CE155" t="n">
         <v>0</v>
@@ -42598,9 +41826,6 @@
         <v>0</v>
       </c>
       <c r="CH155" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -42854,13 +42079,11 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD156" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD156" t="n">
+        <v>1</v>
       </c>
       <c r="CE156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF156" t="n">
         <v>0</v>
@@ -42869,9 +42092,6 @@
         <v>0</v>
       </c>
       <c r="CH156" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -43125,13 +42345,11 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD157" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD157" t="n">
+        <v>1</v>
       </c>
       <c r="CE157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF157" t="n">
         <v>0</v>
@@ -43140,9 +42358,6 @@
         <v>0</v>
       </c>
       <c r="CH157" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -43396,13 +42611,11 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD158" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD158" t="n">
+        <v>1</v>
       </c>
       <c r="CE158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF158" t="n">
         <v>0</v>
@@ -43411,9 +42624,6 @@
         <v>0</v>
       </c>
       <c r="CH158" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -43667,13 +42877,11 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD159" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD159" t="n">
+        <v>1</v>
       </c>
       <c r="CE159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF159" t="n">
         <v>0</v>
@@ -43682,9 +42890,6 @@
         <v>0</v>
       </c>
       <c r="CH159" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -43938,10 +43143,8 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD160" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
+      <c r="CD160" t="n">
+        <v>0</v>
       </c>
       <c r="CE160" t="n">
         <v>0</v>
@@ -43953,9 +43156,6 @@
         <v>0</v>
       </c>
       <c r="CH160" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -44209,10 +43409,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD161" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
+      <c r="CD161" t="n">
+        <v>0</v>
       </c>
       <c r="CE161" t="n">
         <v>0</v>
@@ -44224,9 +43422,6 @@
         <v>0</v>
       </c>
       <c r="CH161" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -44480,10 +43675,8 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD162" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD162" t="n">
+        <v>0</v>
       </c>
       <c r="CE162" t="n">
         <v>0</v>
@@ -44492,12 +43685,9 @@
         <v>0</v>
       </c>
       <c r="CG162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH162" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -44751,10 +43941,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD163" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD163" t="n">
+        <v>0</v>
       </c>
       <c r="CE163" t="n">
         <v>0</v>
@@ -44763,12 +43951,9 @@
         <v>0</v>
       </c>
       <c r="CG163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH163" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -45022,24 +44207,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD164" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="CD164" t="n">
+        <v>0</v>
       </c>
       <c r="CE164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG164" t="n">
         <v>0</v>
       </c>
       <c r="CH164" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -45293,24 +44473,19 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD165" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="CD165" t="n">
+        <v>0</v>
       </c>
       <c r="CE165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG165" t="n">
         <v>0</v>
       </c>
       <c r="CH165" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -45564,10 +44739,8 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD166" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
+      <c r="CD166" t="n">
+        <v>0</v>
       </c>
       <c r="CE166" t="n">
         <v>0</v>
@@ -45579,9 +44752,6 @@
         <v>0</v>
       </c>
       <c r="CH166" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -45835,10 +45005,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD167" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
+      <c r="CD167" t="n">
+        <v>0</v>
       </c>
       <c r="CE167" t="n">
         <v>0</v>
@@ -45850,9 +45018,6 @@
         <v>0</v>
       </c>
       <c r="CH167" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -46106,24 +45271,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD168" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
+      <c r="CD168" t="n">
+        <v>0</v>
       </c>
       <c r="CE168" t="n">
         <v>0</v>
       </c>
       <c r="CF168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH168" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -46377,24 +45537,19 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD169" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
+      <c r="CD169" t="n">
+        <v>0</v>
       </c>
       <c r="CE169" t="n">
         <v>0</v>
       </c>
       <c r="CF169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH169" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -46648,13 +45803,11 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD170" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD170" t="n">
+        <v>1</v>
       </c>
       <c r="CE170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF170" t="n">
         <v>0</v>
@@ -46663,9 +45816,6 @@
         <v>0</v>
       </c>
       <c r="CH170" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -46919,13 +46069,11 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD171" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD171" t="n">
+        <v>1</v>
       </c>
       <c r="CE171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF171" t="n">
         <v>0</v>
@@ -46934,9 +46082,6 @@
         <v>0</v>
       </c>
       <c r="CH171" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -47190,24 +46335,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD172" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="CD172" t="n">
+        <v>0</v>
       </c>
       <c r="CE172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG172" t="n">
         <v>0</v>
       </c>
       <c r="CH172" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -47461,10 +46601,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD173" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
+      <c r="CD173" t="n">
+        <v>0</v>
       </c>
       <c r="CE173" t="n">
         <v>0</v>
@@ -47476,9 +46614,6 @@
         <v>0</v>
       </c>
       <c r="CH173" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -47732,13 +46867,11 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD174" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD174" t="n">
+        <v>1</v>
       </c>
       <c r="CE174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF174" t="n">
         <v>0</v>
@@ -47747,9 +46880,6 @@
         <v>0</v>
       </c>
       <c r="CH174" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -48003,13 +47133,11 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD175" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD175" t="n">
+        <v>1</v>
       </c>
       <c r="CE175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF175" t="n">
         <v>0</v>
@@ -48018,9 +47146,6 @@
         <v>0</v>
       </c>
       <c r="CH175" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -48274,10 +47399,8 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD176" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD176" t="n">
+        <v>0</v>
       </c>
       <c r="CE176" t="n">
         <v>0</v>
@@ -48286,12 +47409,9 @@
         <v>0</v>
       </c>
       <c r="CG176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH176" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -48545,10 +47665,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD177" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD177" t="n">
+        <v>0</v>
       </c>
       <c r="CE177" t="n">
         <v>0</v>
@@ -48557,12 +47675,9 @@
         <v>0</v>
       </c>
       <c r="CG177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH177" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -48816,24 +47931,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD178" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
+      <c r="CD178" t="n">
+        <v>0</v>
       </c>
       <c r="CE178" t="n">
         <v>0</v>
       </c>
       <c r="CF178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH178" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -49087,24 +48197,19 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD179" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
+      <c r="CD179" t="n">
+        <v>0</v>
       </c>
       <c r="CE179" t="n">
         <v>0</v>
       </c>
       <c r="CF179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH179" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -49358,13 +48463,11 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD180" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD180" t="n">
+        <v>1</v>
       </c>
       <c r="CE180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF180" t="n">
         <v>0</v>
@@ -49373,9 +48476,6 @@
         <v>0</v>
       </c>
       <c r="CH180" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -49629,13 +48729,11 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD181" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD181" t="n">
+        <v>1</v>
       </c>
       <c r="CE181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF181" t="n">
         <v>0</v>
@@ -49644,9 +48742,6 @@
         <v>0</v>
       </c>
       <c r="CH181" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -49900,13 +48995,11 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD182" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD182" t="n">
+        <v>1</v>
       </c>
       <c r="CE182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF182" t="n">
         <v>0</v>
@@ -49915,9 +49008,6 @@
         <v>0</v>
       </c>
       <c r="CH182" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -50171,13 +49261,11 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD183" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD183" t="n">
+        <v>1</v>
       </c>
       <c r="CE183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF183" t="n">
         <v>0</v>
@@ -50186,9 +49274,6 @@
         <v>0</v>
       </c>
       <c r="CH183" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -50442,10 +49527,8 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD184" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
+      <c r="CD184" t="n">
+        <v>0</v>
       </c>
       <c r="CE184" t="n">
         <v>0</v>
@@ -50457,9 +49540,6 @@
         <v>0</v>
       </c>
       <c r="CH184" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -50713,10 +49793,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD185" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
+      <c r="CD185" t="n">
+        <v>0</v>
       </c>
       <c r="CE185" t="n">
         <v>0</v>
@@ -50728,9 +49806,6 @@
         <v>0</v>
       </c>
       <c r="CH185" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -50984,24 +50059,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD186" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
+      <c r="CD186" t="n">
+        <v>0</v>
       </c>
       <c r="CE186" t="n">
         <v>0</v>
       </c>
       <c r="CF186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH186" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -51255,24 +50325,19 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD187" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
+      <c r="CD187" t="n">
+        <v>0</v>
       </c>
       <c r="CE187" t="n">
         <v>0</v>
       </c>
       <c r="CF187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH187" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -51526,10 +50591,8 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD188" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD188" t="n">
+        <v>0</v>
       </c>
       <c r="CE188" t="n">
         <v>0</v>
@@ -51538,12 +50601,9 @@
         <v>0</v>
       </c>
       <c r="CG188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH188" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -51797,10 +50857,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD189" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD189" t="n">
+        <v>0</v>
       </c>
       <c r="CE189" t="n">
         <v>0</v>
@@ -51809,12 +50867,9 @@
         <v>0</v>
       </c>
       <c r="CG189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH189" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -52068,24 +51123,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD190" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="CD190" t="n">
+        <v>0</v>
       </c>
       <c r="CE190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG190" t="n">
         <v>0</v>
       </c>
       <c r="CH190" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -52339,24 +51389,19 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD191" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="CD191" t="n">
+        <v>0</v>
       </c>
       <c r="CE191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG191" t="n">
         <v>0</v>
       </c>
       <c r="CH191" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -52610,24 +51655,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD192" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="CD192" t="n">
+        <v>0</v>
       </c>
       <c r="CE192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG192" t="n">
         <v>0</v>
       </c>
       <c r="CH192" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -52881,24 +51921,19 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD193" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="CD193" t="n">
+        <v>0</v>
       </c>
       <c r="CE193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG193" t="n">
         <v>0</v>
       </c>
       <c r="CH193" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -53152,24 +52187,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD194" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="CD194" t="n">
+        <v>0</v>
       </c>
       <c r="CE194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG194" t="n">
         <v>0</v>
       </c>
       <c r="CH194" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -53423,13 +52453,11 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD195" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD195" t="n">
+        <v>1</v>
       </c>
       <c r="CE195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF195" t="n">
         <v>0</v>
@@ -53438,9 +52466,6 @@
         <v>0</v>
       </c>
       <c r="CH195" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -53694,24 +52719,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD196" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
+      <c r="CD196" t="n">
+        <v>0</v>
       </c>
       <c r="CE196" t="n">
         <v>0</v>
       </c>
       <c r="CF196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH196" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -53965,24 +52985,19 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD197" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
+      <c r="CD197" t="n">
+        <v>0</v>
       </c>
       <c r="CE197" t="n">
         <v>0</v>
       </c>
       <c r="CF197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH197" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -54236,10 +53251,8 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD198" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD198" t="n">
+        <v>0</v>
       </c>
       <c r="CE198" t="n">
         <v>0</v>
@@ -54248,12 +53261,9 @@
         <v>0</v>
       </c>
       <c r="CG198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH198" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -54507,10 +53517,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD199" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD199" t="n">
+        <v>0</v>
       </c>
       <c r="CE199" t="n">
         <v>0</v>
@@ -54519,12 +53527,9 @@
         <v>0</v>
       </c>
       <c r="CG199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH199" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -54778,10 +53783,8 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD200" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD200" t="n">
+        <v>0</v>
       </c>
       <c r="CE200" t="n">
         <v>0</v>
@@ -54790,12 +53793,9 @@
         <v>0</v>
       </c>
       <c r="CG200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH200" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -55049,10 +54049,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD201" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD201" t="n">
+        <v>0</v>
       </c>
       <c r="CE201" t="n">
         <v>0</v>
@@ -55061,12 +54059,9 @@
         <v>0</v>
       </c>
       <c r="CG201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH201" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -55320,10 +54315,8 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD202" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD202" t="n">
+        <v>0</v>
       </c>
       <c r="CE202" t="n">
         <v>0</v>
@@ -55332,12 +54325,9 @@
         <v>0</v>
       </c>
       <c r="CG202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH202" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -55591,10 +54581,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD203" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD203" t="n">
+        <v>0</v>
       </c>
       <c r="CE203" t="n">
         <v>0</v>
@@ -55603,12 +54591,9 @@
         <v>0</v>
       </c>
       <c r="CG203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH203" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -55862,13 +54847,11 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD204" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD204" t="n">
+        <v>1</v>
       </c>
       <c r="CE204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF204" t="n">
         <v>0</v>
@@ -55877,9 +54860,6 @@
         <v>0</v>
       </c>
       <c r="CH204" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -56133,13 +55113,11 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD205" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD205" t="n">
+        <v>1</v>
       </c>
       <c r="CE205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF205" t="n">
         <v>0</v>
@@ -56148,9 +55126,6 @@
         <v>0</v>
       </c>
       <c r="CH205" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -56404,10 +55379,8 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD206" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
+      <c r="CD206" t="n">
+        <v>0</v>
       </c>
       <c r="CE206" t="n">
         <v>0</v>
@@ -56419,9 +55392,6 @@
         <v>0</v>
       </c>
       <c r="CH206" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -56675,10 +55645,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD207" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
+      <c r="CD207" t="n">
+        <v>0</v>
       </c>
       <c r="CE207" t="n">
         <v>0</v>
@@ -56690,9 +55658,6 @@
         <v>0</v>
       </c>
       <c r="CH207" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -56946,24 +55911,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD208" t="inlineStr">
-        <is>
-          <t>SF-SG</t>
-        </is>
+      <c r="CD208" t="n">
+        <v>1</v>
       </c>
       <c r="CE208" t="n">
         <v>1</v>
       </c>
       <c r="CF208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG208" t="n">
         <v>0</v>
       </c>
       <c r="CH208" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -57217,13 +56177,11 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD209" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD209" t="n">
+        <v>1</v>
       </c>
       <c r="CE209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF209" t="n">
         <v>0</v>
@@ -57232,9 +56190,6 @@
         <v>0</v>
       </c>
       <c r="CH209" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI209" t="n">
         <v>0</v>
       </c>
     </row>
@@ -57488,10 +56443,8 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD210" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
+      <c r="CD210" t="n">
+        <v>0</v>
       </c>
       <c r="CE210" t="n">
         <v>0</v>
@@ -57503,9 +56456,6 @@
         <v>0</v>
       </c>
       <c r="CH210" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -57759,10 +56709,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD211" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
+      <c r="CD211" t="n">
+        <v>0</v>
       </c>
       <c r="CE211" t="n">
         <v>0</v>
@@ -57774,9 +56722,6 @@
         <v>0</v>
       </c>
       <c r="CH211" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -58030,13 +56975,11 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD212" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD212" t="n">
+        <v>1</v>
       </c>
       <c r="CE212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF212" t="n">
         <v>0</v>
@@ -58045,9 +56988,6 @@
         <v>0</v>
       </c>
       <c r="CH212" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI212" t="n">
         <v>0</v>
       </c>
     </row>
@@ -58301,24 +57241,19 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD213" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="CD213" t="n">
+        <v>0</v>
       </c>
       <c r="CE213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG213" t="n">
         <v>0</v>
       </c>
       <c r="CH213" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI213" t="n">
         <v>0</v>
       </c>
     </row>
@@ -58572,24 +57507,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD214" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
+      <c r="CD214" t="n">
+        <v>0</v>
       </c>
       <c r="CE214" t="n">
         <v>0</v>
       </c>
       <c r="CF214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH214" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI214" t="n">
         <v>0</v>
       </c>
     </row>
@@ -58843,24 +57773,19 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD215" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
+      <c r="CD215" t="n">
+        <v>0</v>
       </c>
       <c r="CE215" t="n">
         <v>0</v>
       </c>
       <c r="CF215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH215" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -59114,24 +58039,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD216" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="CD216" t="n">
+        <v>0</v>
       </c>
       <c r="CE216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG216" t="n">
         <v>0</v>
       </c>
       <c r="CH216" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI216" t="n">
         <v>0</v>
       </c>
     </row>
@@ -59385,13 +58305,11 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD217" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD217" t="n">
+        <v>1</v>
       </c>
       <c r="CE217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF217" t="n">
         <v>0</v>
@@ -59400,9 +58318,6 @@
         <v>0</v>
       </c>
       <c r="CH217" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI217" t="n">
         <v>0</v>
       </c>
     </row>
@@ -59656,13 +58571,11 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD218" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD218" t="n">
+        <v>1</v>
       </c>
       <c r="CE218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF218" t="n">
         <v>0</v>
@@ -59671,9 +58584,6 @@
         <v>0</v>
       </c>
       <c r="CH218" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI218" t="n">
         <v>0</v>
       </c>
     </row>
@@ -59927,24 +58837,19 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD219" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
+      <c r="CD219" t="n">
+        <v>0</v>
       </c>
       <c r="CE219" t="n">
         <v>0</v>
       </c>
       <c r="CF219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH219" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI219" t="n">
         <v>0</v>
       </c>
     </row>
@@ -60198,24 +59103,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD220" t="inlineStr">
-        <is>
-          <t>PF-SF</t>
-        </is>
+      <c r="CD220" t="n">
+        <v>0</v>
       </c>
       <c r="CE220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG220" t="n">
         <v>0</v>
       </c>
       <c r="CH220" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -60469,10 +59369,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD221" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
+      <c r="CD221" t="n">
+        <v>0</v>
       </c>
       <c r="CE221" t="n">
         <v>0</v>
@@ -60484,9 +59382,6 @@
         <v>0</v>
       </c>
       <c r="CH221" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -60740,10 +59635,8 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD222" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD222" t="n">
+        <v>0</v>
       </c>
       <c r="CE222" t="n">
         <v>0</v>
@@ -60752,12 +59645,9 @@
         <v>0</v>
       </c>
       <c r="CG222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH222" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI222" t="n">
         <v>0</v>
       </c>
     </row>
@@ -61011,10 +59901,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD223" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD223" t="n">
+        <v>0</v>
       </c>
       <c r="CE223" t="n">
         <v>0</v>
@@ -61023,12 +59911,9 @@
         <v>0</v>
       </c>
       <c r="CG223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH223" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI223" t="n">
         <v>0</v>
       </c>
     </row>
@@ -61282,10 +60167,8 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD224" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD224" t="n">
+        <v>0</v>
       </c>
       <c r="CE224" t="n">
         <v>0</v>
@@ -61294,12 +60177,9 @@
         <v>0</v>
       </c>
       <c r="CG224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH224" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -61553,10 +60433,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD225" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD225" t="n">
+        <v>0</v>
       </c>
       <c r="CE225" t="n">
         <v>0</v>
@@ -61565,12 +60443,9 @@
         <v>0</v>
       </c>
       <c r="CG225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH225" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI225" t="n">
         <v>0</v>
       </c>
     </row>
@@ -61824,24 +60699,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD226" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="CD226" t="n">
+        <v>0</v>
       </c>
       <c r="CE226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG226" t="n">
         <v>0</v>
       </c>
       <c r="CH226" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI226" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62095,24 +60965,19 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD227" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="CD227" t="n">
+        <v>0</v>
       </c>
       <c r="CE227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG227" t="n">
         <v>0</v>
       </c>
       <c r="CH227" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62366,10 +61231,8 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD228" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD228" t="n">
+        <v>0</v>
       </c>
       <c r="CE228" t="n">
         <v>0</v>
@@ -62378,12 +61241,9 @@
         <v>0</v>
       </c>
       <c r="CG228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH228" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI228" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62637,10 +61497,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD229" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD229" t="n">
+        <v>0</v>
       </c>
       <c r="CE229" t="n">
         <v>0</v>
@@ -62649,12 +61507,9 @@
         <v>0</v>
       </c>
       <c r="CG229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH229" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI229" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62908,10 +61763,8 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD230" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
+      <c r="CD230" t="n">
+        <v>0</v>
       </c>
       <c r="CE230" t="n">
         <v>0</v>
@@ -62923,9 +61776,6 @@
         <v>0</v>
       </c>
       <c r="CH230" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -63179,10 +62029,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD231" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
+      <c r="CD231" t="n">
+        <v>0</v>
       </c>
       <c r="CE231" t="n">
         <v>0</v>
@@ -63194,9 +62042,6 @@
         <v>0</v>
       </c>
       <c r="CH231" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -63450,24 +62295,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD232" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
+      <c r="CD232" t="n">
+        <v>0</v>
       </c>
       <c r="CE232" t="n">
         <v>0</v>
       </c>
       <c r="CF232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH232" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI232" t="n">
         <v>0</v>
       </c>
     </row>
@@ -63721,24 +62561,19 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD233" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
+      <c r="CD233" t="n">
+        <v>0</v>
       </c>
       <c r="CE233" t="n">
         <v>0</v>
       </c>
       <c r="CF233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH233" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI233" t="n">
         <v>0</v>
       </c>
     </row>
@@ -63992,13 +62827,11 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD234" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD234" t="n">
+        <v>1</v>
       </c>
       <c r="CE234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF234" t="n">
         <v>0</v>
@@ -64007,9 +62840,6 @@
         <v>0</v>
       </c>
       <c r="CH234" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI234" t="n">
         <v>0</v>
       </c>
     </row>
@@ -64263,13 +63093,11 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD235" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD235" t="n">
+        <v>1</v>
       </c>
       <c r="CE235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF235" t="n">
         <v>0</v>
@@ -64278,9 +63106,6 @@
         <v>0</v>
       </c>
       <c r="CH235" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI235" t="n">
         <v>0</v>
       </c>
     </row>
@@ -64534,24 +63359,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD236" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
+      <c r="CD236" t="n">
+        <v>0</v>
       </c>
       <c r="CE236" t="n">
         <v>0</v>
       </c>
       <c r="CF236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH236" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI236" t="n">
         <v>0</v>
       </c>
     </row>
@@ -64805,13 +63625,11 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD237" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD237" t="n">
+        <v>1</v>
       </c>
       <c r="CE237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF237" t="n">
         <v>0</v>
@@ -64820,9 +63638,6 @@
         <v>0</v>
       </c>
       <c r="CH237" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI237" t="n">
         <v>0</v>
       </c>
     </row>
@@ -65076,13 +63891,11 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD238" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD238" t="n">
+        <v>1</v>
       </c>
       <c r="CE238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF238" t="n">
         <v>0</v>
@@ -65091,9 +63904,6 @@
         <v>0</v>
       </c>
       <c r="CH238" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI238" t="n">
         <v>0</v>
       </c>
     </row>
@@ -65347,13 +64157,11 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD239" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD239" t="n">
+        <v>1</v>
       </c>
       <c r="CE239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF239" t="n">
         <v>0</v>
@@ -65362,9 +64170,6 @@
         <v>0</v>
       </c>
       <c r="CH239" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI239" t="n">
         <v>0</v>
       </c>
     </row>
@@ -65618,24 +64423,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD240" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
+      <c r="CD240" t="n">
+        <v>0</v>
       </c>
       <c r="CE240" t="n">
         <v>0</v>
       </c>
       <c r="CF240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH240" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI240" t="n">
         <v>0</v>
       </c>
     </row>
@@ -65889,24 +64689,19 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD241" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
+      <c r="CD241" t="n">
+        <v>0</v>
       </c>
       <c r="CE241" t="n">
         <v>0</v>
       </c>
       <c r="CF241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH241" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI241" t="n">
         <v>0</v>
       </c>
     </row>
@@ -66160,24 +64955,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD242" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
+      <c r="CD242" t="n">
+        <v>0</v>
       </c>
       <c r="CE242" t="n">
         <v>0</v>
       </c>
       <c r="CF242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH242" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI242" t="n">
         <v>0</v>
       </c>
     </row>
@@ -66431,24 +65221,19 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD243" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
+      <c r="CD243" t="n">
+        <v>0</v>
       </c>
       <c r="CE243" t="n">
         <v>0</v>
       </c>
       <c r="CF243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH243" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI243" t="n">
         <v>0</v>
       </c>
     </row>
@@ -66702,10 +65487,8 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD244" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
+      <c r="CD244" t="n">
+        <v>0</v>
       </c>
       <c r="CE244" t="n">
         <v>0</v>
@@ -66717,9 +65500,6 @@
         <v>0</v>
       </c>
       <c r="CH244" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -66973,10 +65753,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD245" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
+      <c r="CD245" t="n">
+        <v>0</v>
       </c>
       <c r="CE245" t="n">
         <v>0</v>
@@ -66988,9 +65766,6 @@
         <v>0</v>
       </c>
       <c r="CH245" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -67244,24 +66019,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD246" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="CD246" t="n">
+        <v>0</v>
       </c>
       <c r="CE246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG246" t="n">
         <v>0</v>
       </c>
       <c r="CH246" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI246" t="n">
         <v>0</v>
       </c>
     </row>
@@ -67515,13 +66285,11 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD247" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD247" t="n">
+        <v>1</v>
       </c>
       <c r="CE247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF247" t="n">
         <v>0</v>
@@ -67530,9 +66298,6 @@
         <v>0</v>
       </c>
       <c r="CH247" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI247" t="n">
         <v>0</v>
       </c>
     </row>
@@ -67786,24 +66551,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD248" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="CD248" t="n">
+        <v>0</v>
       </c>
       <c r="CE248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG248" t="n">
         <v>0</v>
       </c>
       <c r="CH248" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI248" t="n">
         <v>0</v>
       </c>
     </row>
@@ -68057,10 +66817,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD249" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
+      <c r="CD249" t="n">
+        <v>0</v>
       </c>
       <c r="CE249" t="n">
         <v>0</v>
@@ -68072,9 +66830,6 @@
         <v>0</v>
       </c>
       <c r="CH249" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -68328,10 +67083,8 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD250" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD250" t="n">
+        <v>0</v>
       </c>
       <c r="CE250" t="n">
         <v>0</v>
@@ -68340,12 +67093,9 @@
         <v>0</v>
       </c>
       <c r="CG250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH250" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI250" t="n">
         <v>0</v>
       </c>
     </row>
@@ -68599,10 +67349,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD251" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD251" t="n">
+        <v>0</v>
       </c>
       <c r="CE251" t="n">
         <v>0</v>
@@ -68611,12 +67359,9 @@
         <v>0</v>
       </c>
       <c r="CG251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH251" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI251" t="n">
         <v>0</v>
       </c>
     </row>
@@ -68870,10 +67615,8 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD252" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
+      <c r="CD252" t="n">
+        <v>0</v>
       </c>
       <c r="CE252" t="n">
         <v>0</v>
@@ -68885,9 +67628,6 @@
         <v>0</v>
       </c>
       <c r="CH252" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -69141,24 +67881,19 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD253" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="CD253" t="n">
+        <v>0</v>
       </c>
       <c r="CE253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG253" t="n">
         <v>0</v>
       </c>
       <c r="CH253" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI253" t="n">
         <v>0</v>
       </c>
     </row>
@@ -69412,24 +68147,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD254" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="CD254" t="n">
+        <v>0</v>
       </c>
       <c r="CE254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG254" t="n">
         <v>0</v>
       </c>
       <c r="CH254" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI254" t="n">
         <v>0</v>
       </c>
     </row>
@@ -69683,10 +68413,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD255" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
+      <c r="CD255" t="n">
+        <v>0</v>
       </c>
       <c r="CE255" t="n">
         <v>0</v>
@@ -69698,9 +68426,6 @@
         <v>0</v>
       </c>
       <c r="CH255" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -69954,24 +68679,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD256" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
+      <c r="CD256" t="n">
+        <v>0</v>
       </c>
       <c r="CE256" t="n">
         <v>0</v>
       </c>
       <c r="CF256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH256" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI256" t="n">
         <v>0</v>
       </c>
     </row>
@@ -70225,24 +68945,19 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD257" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
+      <c r="CD257" t="n">
+        <v>0</v>
       </c>
       <c r="CE257" t="n">
         <v>0</v>
       </c>
       <c r="CF257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH257" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI257" t="n">
         <v>0</v>
       </c>
     </row>
@@ -70496,10 +69211,8 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD258" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
+      <c r="CD258" t="n">
+        <v>0</v>
       </c>
       <c r="CE258" t="n">
         <v>0</v>
@@ -70511,9 +69224,6 @@
         <v>0</v>
       </c>
       <c r="CH258" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI258" t="n">
         <v>1</v>
       </c>
     </row>
@@ -70767,10 +69477,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD259" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
+      <c r="CD259" t="n">
+        <v>0</v>
       </c>
       <c r="CE259" t="n">
         <v>0</v>
@@ -70782,9 +69490,6 @@
         <v>0</v>
       </c>
       <c r="CH259" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI259" t="n">
         <v>1</v>
       </c>
     </row>
@@ -71038,10 +69743,8 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD260" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
+      <c r="CD260" t="n">
+        <v>0</v>
       </c>
       <c r="CE260" t="n">
         <v>0</v>
@@ -71053,9 +69756,6 @@
         <v>0</v>
       </c>
       <c r="CH260" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI260" t="n">
         <v>1</v>
       </c>
     </row>
@@ -71309,10 +70009,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD261" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD261" t="n">
+        <v>0</v>
       </c>
       <c r="CE261" t="n">
         <v>0</v>
@@ -71321,12 +70019,9 @@
         <v>0</v>
       </c>
       <c r="CG261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH261" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI261" t="n">
         <v>0</v>
       </c>
     </row>
@@ -71580,24 +70275,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD262" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="CD262" t="n">
+        <v>0</v>
       </c>
       <c r="CE262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG262" t="n">
         <v>0</v>
       </c>
       <c r="CH262" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI262" t="n">
         <v>0</v>
       </c>
     </row>
@@ -71851,24 +70541,19 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD263" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="CD263" t="n">
+        <v>0</v>
       </c>
       <c r="CE263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG263" t="n">
         <v>0</v>
       </c>
       <c r="CH263" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI263" t="n">
         <v>0</v>
       </c>
     </row>
@@ -72122,13 +70807,11 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD264" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD264" t="n">
+        <v>1</v>
       </c>
       <c r="CE264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF264" t="n">
         <v>0</v>
@@ -72137,9 +70820,6 @@
         <v>0</v>
       </c>
       <c r="CH264" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI264" t="n">
         <v>0</v>
       </c>
     </row>
@@ -72393,13 +71073,11 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD265" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD265" t="n">
+        <v>1</v>
       </c>
       <c r="CE265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF265" t="n">
         <v>0</v>
@@ -72408,9 +71086,6 @@
         <v>0</v>
       </c>
       <c r="CH265" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI265" t="n">
         <v>0</v>
       </c>
     </row>
@@ -72664,24 +71339,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD266" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
+      <c r="CD266" t="n">
+        <v>0</v>
       </c>
       <c r="CE266" t="n">
         <v>0</v>
       </c>
       <c r="CF266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH266" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI266" t="n">
         <v>0</v>
       </c>
     </row>
@@ -72935,24 +71605,19 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD267" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
+      <c r="CD267" t="n">
+        <v>0</v>
       </c>
       <c r="CE267" t="n">
         <v>0</v>
       </c>
       <c r="CF267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH267" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI267" t="n">
         <v>0</v>
       </c>
     </row>
@@ -73206,10 +71871,8 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD268" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
+      <c r="CD268" t="n">
+        <v>0</v>
       </c>
       <c r="CE268" t="n">
         <v>0</v>
@@ -73221,9 +71884,6 @@
         <v>0</v>
       </c>
       <c r="CH268" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI268" t="n">
         <v>1</v>
       </c>
     </row>
@@ -73477,10 +72137,8 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD269" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="CD269" t="n">
+        <v>0</v>
       </c>
       <c r="CE269" t="n">
         <v>0</v>
@@ -73489,12 +72147,9 @@
         <v>0</v>
       </c>
       <c r="CG269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH269" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI269" t="n">
         <v>0</v>
       </c>
     </row>
@@ -73748,13 +72403,11 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD270" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
+      <c r="CD270" t="n">
+        <v>1</v>
       </c>
       <c r="CE270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF270" t="n">
         <v>0</v>
@@ -73763,9 +72416,6 @@
         <v>0</v>
       </c>
       <c r="CH270" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI270" t="n">
         <v>0</v>
       </c>
     </row>
@@ -74019,24 +72669,19 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD271" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="CD271" t="n">
+        <v>0</v>
       </c>
       <c r="CE271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG271" t="n">
         <v>0</v>
       </c>
       <c r="CH271" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI271" t="n">
         <v>0</v>
       </c>
     </row>
@@ -74290,24 +72935,19 @@
           <t>2021-2022</t>
         </is>
       </c>
-      <c r="CD272" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="CD272" t="n">
+        <v>0</v>
       </c>
       <c r="CE272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG272" t="n">
         <v>0</v>
       </c>
       <c r="CH272" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI272" t="n">
         <v>0</v>
       </c>
     </row>
@@ -74561,24 +73201,19 @@
           <t>2022-2023</t>
         </is>
       </c>
-      <c r="CD273" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="CD273" t="n">
+        <v>0</v>
       </c>
       <c r="CE273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG273" t="n">
         <v>0</v>
       </c>
       <c r="CH273" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI273" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Capstone 2 Data Wrangling/DataWrangling2.0.xlsx
+++ b/Capstone 2 Data Wrangling/DataWrangling2.0.xlsx
@@ -841,22 +841,22 @@
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
           <t>SG</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>PG</t>
-        </is>
-      </c>
-      <c r="CG1" s="1" t="inlineStr">
-        <is>
-          <t>C</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="CF4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH4" t="n">
         <v>0</v>
@@ -1920,10 +1920,10 @@
         <v>0</v>
       </c>
       <c r="CF5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH5" t="n">
         <v>0</v>
@@ -2183,13 +2183,13 @@
         <v>0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF6" t="n">
         <v>0</v>
       </c>
       <c r="CG6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH6" t="n">
         <v>0</v>
@@ -2449,13 +2449,13 @@
         <v>0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF7" t="n">
         <v>0</v>
       </c>
       <c r="CG7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH7" t="n">
         <v>0</v>
@@ -2715,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF8" t="n">
         <v>0</v>
       </c>
       <c r="CG8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH8" t="n">
         <v>0</v>
@@ -2981,13 +2981,13 @@
         <v>0</v>
       </c>
       <c r="CE9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF9" t="n">
         <v>0</v>
       </c>
       <c r="CG9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH9" t="n">
         <v>0</v>
@@ -3244,13 +3244,13 @@
         </is>
       </c>
       <c r="CD10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE10" t="n">
         <v>0</v>
       </c>
       <c r="CF10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG10" t="n">
         <v>0</v>
@@ -3510,10 +3510,10 @@
         </is>
       </c>
       <c r="CD11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF11" t="n">
         <v>0</v>
@@ -3776,10 +3776,10 @@
         </is>
       </c>
       <c r="CD12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF12" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         </is>
       </c>
       <c r="CD13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF13" t="n">
         <v>0</v>
@@ -4311,13 +4311,13 @@
         <v>0</v>
       </c>
       <c r="CE14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF14" t="n">
         <v>0</v>
       </c>
       <c r="CG14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH14" t="n">
         <v>0</v>
@@ -4577,13 +4577,13 @@
         <v>0</v>
       </c>
       <c r="CE15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF15" t="n">
         <v>0</v>
       </c>
       <c r="CG15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH15" t="n">
         <v>0</v>
@@ -4843,13 +4843,13 @@
         <v>0</v>
       </c>
       <c r="CE16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF16" t="n">
         <v>0</v>
       </c>
       <c r="CG16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH16" t="n">
         <v>0</v>
@@ -5109,13 +5109,13 @@
         <v>0</v>
       </c>
       <c r="CE17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF17" t="n">
         <v>0</v>
       </c>
       <c r="CG17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH17" t="n">
         <v>0</v>
@@ -5375,13 +5375,13 @@
         <v>0</v>
       </c>
       <c r="CE18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF18" t="n">
         <v>0</v>
       </c>
       <c r="CG18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH18" t="n">
         <v>0</v>
@@ -5641,13 +5641,13 @@
         <v>0</v>
       </c>
       <c r="CE19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF19" t="n">
         <v>0</v>
       </c>
       <c r="CG19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH19" t="n">
         <v>0</v>
@@ -5907,13 +5907,13 @@
         <v>0</v>
       </c>
       <c r="CE20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF20" t="n">
         <v>0</v>
       </c>
       <c r="CG20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH20" t="n">
         <v>0</v>
@@ -6439,13 +6439,13 @@
         <v>0</v>
       </c>
       <c r="CE22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF22" t="n">
         <v>0</v>
       </c>
       <c r="CG22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH22" t="n">
         <v>0</v>
@@ -6705,13 +6705,13 @@
         <v>0</v>
       </c>
       <c r="CE23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF23" t="n">
         <v>0</v>
       </c>
       <c r="CG23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH23" t="n">
         <v>0</v>
@@ -6968,10 +6968,10 @@
         </is>
       </c>
       <c r="CD24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF24" t="n">
         <v>0</v>
@@ -7234,10 +7234,10 @@
         </is>
       </c>
       <c r="CD25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF25" t="n">
         <v>0</v>
@@ -7500,10 +7500,10 @@
         </is>
       </c>
       <c r="CD26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF26" t="n">
         <v>0</v>
@@ -7766,10 +7766,10 @@
         </is>
       </c>
       <c r="CD27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF27" t="n">
         <v>0</v>
@@ -8570,10 +8570,10 @@
         <v>0</v>
       </c>
       <c r="CF30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH30" t="n">
         <v>0</v>
@@ -8836,10 +8836,10 @@
         <v>0</v>
       </c>
       <c r="CF31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH31" t="n">
         <v>0</v>
@@ -9096,13 +9096,13 @@
         </is>
       </c>
       <c r="CD32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE32" t="n">
         <v>0</v>
       </c>
       <c r="CF32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG32" t="n">
         <v>0</v>
@@ -9362,13 +9362,13 @@
         </is>
       </c>
       <c r="CD33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE33" t="n">
         <v>0</v>
       </c>
       <c r="CF33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG33" t="n">
         <v>0</v>
@@ -9628,10 +9628,10 @@
         </is>
       </c>
       <c r="CD34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF34" t="n">
         <v>0</v>
@@ -9894,10 +9894,10 @@
         </is>
       </c>
       <c r="CD35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF35" t="n">
         <v>0</v>
@@ -10163,13 +10163,13 @@
         <v>0</v>
       </c>
       <c r="CE36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF36" t="n">
         <v>0</v>
       </c>
       <c r="CG36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH36" t="n">
         <v>0</v>
@@ -10698,10 +10698,10 @@
         <v>0</v>
       </c>
       <c r="CF38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH38" t="n">
         <v>0</v>
@@ -10964,10 +10964,10 @@
         <v>0</v>
       </c>
       <c r="CF39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH39" t="n">
         <v>0</v>
@@ -11227,13 +11227,13 @@
         <v>0</v>
       </c>
       <c r="CE40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF40" t="n">
         <v>0</v>
       </c>
       <c r="CG40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH40" t="n">
         <v>0</v>
@@ -11493,13 +11493,13 @@
         <v>0</v>
       </c>
       <c r="CE41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF41" t="n">
         <v>0</v>
       </c>
       <c r="CG41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH41" t="n">
         <v>0</v>
@@ -11759,13 +11759,13 @@
         <v>0</v>
       </c>
       <c r="CE42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF42" t="n">
         <v>0</v>
       </c>
       <c r="CG42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH42" t="n">
         <v>0</v>
@@ -12025,13 +12025,13 @@
         <v>0</v>
       </c>
       <c r="CE43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF43" t="n">
         <v>0</v>
       </c>
       <c r="CG43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH43" t="n">
         <v>0</v>
@@ -12294,10 +12294,10 @@
         <v>0</v>
       </c>
       <c r="CF44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH44" t="n">
         <v>0</v>
@@ -12560,10 +12560,10 @@
         <v>0</v>
       </c>
       <c r="CF45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH45" t="n">
         <v>0</v>
@@ -12820,13 +12820,13 @@
         </is>
       </c>
       <c r="CD46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE46" t="n">
         <v>0</v>
       </c>
       <c r="CF46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG46" t="n">
         <v>0</v>
@@ -13086,13 +13086,13 @@
         </is>
       </c>
       <c r="CD47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE47" t="n">
         <v>0</v>
       </c>
       <c r="CF47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG47" t="n">
         <v>0</v>
@@ -13352,10 +13352,10 @@
         </is>
       </c>
       <c r="CD48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF48" t="n">
         <v>0</v>
@@ -13618,13 +13618,13 @@
         </is>
       </c>
       <c r="CD49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE49" t="n">
         <v>0</v>
       </c>
       <c r="CF49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG49" t="n">
         <v>0</v>
@@ -13890,10 +13890,10 @@
         <v>0</v>
       </c>
       <c r="CF50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH50" t="n">
         <v>0</v>
@@ -14156,10 +14156,10 @@
         <v>0</v>
       </c>
       <c r="CF51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH51" t="n">
         <v>0</v>
@@ -14422,10 +14422,10 @@
         <v>0</v>
       </c>
       <c r="CF52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH52" t="n">
         <v>0</v>
@@ -14688,10 +14688,10 @@
         <v>0</v>
       </c>
       <c r="CF53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH53" t="n">
         <v>0</v>
@@ -14948,10 +14948,10 @@
         </is>
       </c>
       <c r="CD54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF54" t="n">
         <v>0</v>
@@ -15214,10 +15214,10 @@
         </is>
       </c>
       <c r="CD55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF55" t="n">
         <v>0</v>
@@ -15480,13 +15480,13 @@
         </is>
       </c>
       <c r="CD56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE56" t="n">
         <v>0</v>
       </c>
       <c r="CF56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG56" t="n">
         <v>0</v>
@@ -15746,13 +15746,13 @@
         </is>
       </c>
       <c r="CD57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE57" t="n">
         <v>0</v>
       </c>
       <c r="CF57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG57" t="n">
         <v>0</v>
@@ -16015,13 +16015,13 @@
         <v>0</v>
       </c>
       <c r="CE58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF58" t="n">
         <v>0</v>
       </c>
       <c r="CG58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH58" t="n">
         <v>0</v>
@@ -16281,13 +16281,13 @@
         <v>0</v>
       </c>
       <c r="CE59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF59" t="n">
         <v>0</v>
       </c>
       <c r="CG59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH59" t="n">
         <v>0</v>
@@ -17079,13 +17079,13 @@
         <v>0</v>
       </c>
       <c r="CE62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF62" t="n">
         <v>0</v>
       </c>
       <c r="CG62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH62" t="n">
         <v>0</v>
@@ -17345,13 +17345,13 @@
         <v>0</v>
       </c>
       <c r="CE63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF63" t="n">
         <v>0</v>
       </c>
       <c r="CG63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH63" t="n">
         <v>0</v>
@@ -17614,10 +17614,10 @@
         <v>0</v>
       </c>
       <c r="CF64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH64" t="n">
         <v>0</v>
@@ -17874,13 +17874,13 @@
         </is>
       </c>
       <c r="CD65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE65" t="n">
         <v>0</v>
       </c>
       <c r="CF65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG65" t="n">
         <v>0</v>
@@ -18146,10 +18146,10 @@
         <v>0</v>
       </c>
       <c r="CF66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH66" t="n">
         <v>0</v>
@@ -18412,10 +18412,10 @@
         <v>0</v>
       </c>
       <c r="CF67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH67" t="n">
         <v>0</v>
@@ -18672,13 +18672,13 @@
         </is>
       </c>
       <c r="CD68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE68" t="n">
         <v>0</v>
       </c>
       <c r="CF68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG68" t="n">
         <v>0</v>
@@ -18938,13 +18938,13 @@
         </is>
       </c>
       <c r="CD69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE69" t="n">
         <v>0</v>
       </c>
       <c r="CF69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG69" t="n">
         <v>0</v>
@@ -19204,13 +19204,13 @@
         </is>
       </c>
       <c r="CD70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE70" t="n">
         <v>0</v>
       </c>
       <c r="CF70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG70" t="n">
         <v>0</v>
@@ -19470,13 +19470,13 @@
         </is>
       </c>
       <c r="CD71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE71" t="n">
         <v>0</v>
       </c>
       <c r="CF71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG71" t="n">
         <v>0</v>
@@ -19736,10 +19736,10 @@
         </is>
       </c>
       <c r="CD72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF72" t="n">
         <v>0</v>
@@ -20002,10 +20002,10 @@
         </is>
       </c>
       <c r="CD73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF73" t="n">
         <v>0</v>
@@ -20271,13 +20271,13 @@
         <v>0</v>
       </c>
       <c r="CE74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF74" t="n">
         <v>0</v>
       </c>
       <c r="CG74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH74" t="n">
         <v>1</v>
@@ -20537,13 +20537,13 @@
         <v>0</v>
       </c>
       <c r="CE75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF75" t="n">
         <v>0</v>
       </c>
       <c r="CG75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH75" t="n">
         <v>0</v>
@@ -20800,13 +20800,13 @@
         </is>
       </c>
       <c r="CD76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE76" t="n">
         <v>0</v>
       </c>
       <c r="CF76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG76" t="n">
         <v>0</v>
@@ -21066,13 +21066,13 @@
         </is>
       </c>
       <c r="CD77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE77" t="n">
         <v>0</v>
       </c>
       <c r="CF77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG77" t="n">
         <v>0</v>
@@ -21332,13 +21332,13 @@
         </is>
       </c>
       <c r="CD78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE78" t="n">
         <v>0</v>
       </c>
       <c r="CF78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG78" t="n">
         <v>0</v>
@@ -21598,13 +21598,13 @@
         </is>
       </c>
       <c r="CD79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE79" t="n">
         <v>0</v>
       </c>
       <c r="CF79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG79" t="n">
         <v>0</v>
@@ -22928,13 +22928,13 @@
         </is>
       </c>
       <c r="CD84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE84" t="n">
         <v>0</v>
       </c>
       <c r="CF84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG84" t="n">
         <v>0</v>
@@ -23194,10 +23194,10 @@
         </is>
       </c>
       <c r="CD85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF85" t="n">
         <v>0</v>
@@ -23460,13 +23460,13 @@
         </is>
       </c>
       <c r="CD86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE86" t="n">
         <v>0</v>
       </c>
       <c r="CF86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG86" t="n">
         <v>0</v>
@@ -23726,13 +23726,13 @@
         </is>
       </c>
       <c r="CD87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE87" t="n">
         <v>0</v>
       </c>
       <c r="CF87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG87" t="n">
         <v>0</v>
@@ -23992,13 +23992,13 @@
         </is>
       </c>
       <c r="CD88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE88" t="n">
         <v>0</v>
       </c>
       <c r="CF88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG88" t="n">
         <v>0</v>
@@ -24258,13 +24258,13 @@
         </is>
       </c>
       <c r="CD89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE89" t="n">
         <v>0</v>
       </c>
       <c r="CF89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG89" t="n">
         <v>0</v>
@@ -24530,10 +24530,10 @@
         <v>0</v>
       </c>
       <c r="CF90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH90" t="n">
         <v>0</v>
@@ -24796,10 +24796,10 @@
         <v>0</v>
       </c>
       <c r="CF91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH91" t="n">
         <v>0</v>
@@ -26120,13 +26120,13 @@
         </is>
       </c>
       <c r="CD96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE96" t="n">
         <v>0</v>
       </c>
       <c r="CF96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG96" t="n">
         <v>0</v>
@@ -26386,13 +26386,13 @@
         </is>
       </c>
       <c r="CD97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE97" t="n">
         <v>0</v>
       </c>
       <c r="CF97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG97" t="n">
         <v>0</v>
@@ -27187,13 +27187,13 @@
         <v>0</v>
       </c>
       <c r="CE100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF100" t="n">
         <v>0</v>
       </c>
       <c r="CG100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH100" t="n">
         <v>0</v>
@@ -27453,13 +27453,13 @@
         <v>0</v>
       </c>
       <c r="CE101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF101" t="n">
         <v>0</v>
       </c>
       <c r="CG101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH101" t="n">
         <v>0</v>
@@ -27722,10 +27722,10 @@
         <v>0</v>
       </c>
       <c r="CF102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH102" t="n">
         <v>0</v>
@@ -27988,10 +27988,10 @@
         <v>0</v>
       </c>
       <c r="CF103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH103" t="n">
         <v>0</v>
@@ -28251,13 +28251,13 @@
         <v>0</v>
       </c>
       <c r="CE104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF104" t="n">
         <v>0</v>
       </c>
       <c r="CG104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH104" t="n">
         <v>0</v>
@@ -28517,13 +28517,13 @@
         <v>0</v>
       </c>
       <c r="CE105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF105" t="n">
         <v>0</v>
       </c>
       <c r="CG105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH105" t="n">
         <v>0</v>
@@ -28786,10 +28786,10 @@
         <v>0</v>
       </c>
       <c r="CF106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH106" t="n">
         <v>0</v>
@@ -29052,10 +29052,10 @@
         <v>0</v>
       </c>
       <c r="CF107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH107" t="n">
         <v>0</v>
@@ -29850,10 +29850,10 @@
         <v>0</v>
       </c>
       <c r="CF110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH110" t="n">
         <v>0</v>
@@ -30116,10 +30116,10 @@
         <v>0</v>
       </c>
       <c r="CF111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH111" t="n">
         <v>0</v>
@@ -30376,10 +30376,10 @@
         </is>
       </c>
       <c r="CD112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF112" t="n">
         <v>0</v>
@@ -30642,10 +30642,10 @@
         </is>
       </c>
       <c r="CD113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF113" t="n">
         <v>0</v>
@@ -30908,7 +30908,7 @@
         </is>
       </c>
       <c r="CD114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE114" t="n">
         <v>0</v>
@@ -30917,7 +30917,7 @@
         <v>1</v>
       </c>
       <c r="CG114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH114" t="n">
         <v>0</v>
@@ -31180,10 +31180,10 @@
         <v>0</v>
       </c>
       <c r="CF115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH115" t="n">
         <v>0</v>
@@ -31975,13 +31975,13 @@
         <v>0</v>
       </c>
       <c r="CE118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF118" t="n">
         <v>0</v>
       </c>
       <c r="CG118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH118" t="n">
         <v>0</v>
@@ -32241,13 +32241,13 @@
         <v>0</v>
       </c>
       <c r="CE119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF119" t="n">
         <v>0</v>
       </c>
       <c r="CG119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH119" t="n">
         <v>0</v>
@@ -32504,10 +32504,10 @@
         </is>
       </c>
       <c r="CD120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF120" t="n">
         <v>0</v>
@@ -32770,10 +32770,10 @@
         </is>
       </c>
       <c r="CD121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF121" t="n">
         <v>0</v>
@@ -33036,13 +33036,13 @@
         </is>
       </c>
       <c r="CD122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE122" t="n">
         <v>0</v>
       </c>
       <c r="CF122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG122" t="n">
         <v>0</v>
@@ -33302,13 +33302,13 @@
         </is>
       </c>
       <c r="CD123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE123" t="n">
         <v>0</v>
       </c>
       <c r="CF123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG123" t="n">
         <v>0</v>
@@ -33568,10 +33568,10 @@
         </is>
       </c>
       <c r="CD124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF124" t="n">
         <v>0</v>
@@ -33834,10 +33834,10 @@
         </is>
       </c>
       <c r="CD125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF125" t="n">
         <v>0</v>
@@ -34103,13 +34103,13 @@
         <v>0</v>
       </c>
       <c r="CE126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF126" t="n">
         <v>0</v>
       </c>
       <c r="CG126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH126" t="n">
         <v>0</v>
@@ -34638,10 +34638,10 @@
         <v>0</v>
       </c>
       <c r="CF128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH128" t="n">
         <v>0</v>
@@ -34904,10 +34904,10 @@
         <v>0</v>
       </c>
       <c r="CF129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH129" t="n">
         <v>0</v>
@@ -35164,10 +35164,10 @@
         </is>
       </c>
       <c r="CD130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF130" t="n">
         <v>0</v>
@@ -35696,10 +35696,10 @@
         </is>
       </c>
       <c r="CD132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF132" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         </is>
       </c>
       <c r="CD133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF133" t="n">
         <v>0</v>
@@ -36228,10 +36228,10 @@
         </is>
       </c>
       <c r="CD134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF134" t="n">
         <v>0</v>
@@ -36494,10 +36494,10 @@
         </is>
       </c>
       <c r="CD135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF135" t="n">
         <v>0</v>
@@ -36763,13 +36763,13 @@
         <v>0</v>
       </c>
       <c r="CE136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF136" t="n">
         <v>0</v>
       </c>
       <c r="CG136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH136" t="n">
         <v>0</v>
@@ -37029,13 +37029,13 @@
         <v>0</v>
       </c>
       <c r="CE137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF137" t="n">
         <v>0</v>
       </c>
       <c r="CG137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH137" t="n">
         <v>0</v>
@@ -37824,13 +37824,13 @@
         </is>
       </c>
       <c r="CD140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE140" t="n">
         <v>0</v>
       </c>
       <c r="CF140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG140" t="n">
         <v>0</v>
@@ -38090,10 +38090,10 @@
         </is>
       </c>
       <c r="CD141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF141" t="n">
         <v>0</v>
@@ -38362,10 +38362,10 @@
         <v>0</v>
       </c>
       <c r="CF142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH142" t="n">
         <v>0</v>
@@ -38628,10 +38628,10 @@
         <v>0</v>
       </c>
       <c r="CF143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH143" t="n">
         <v>0</v>
@@ -38888,13 +38888,13 @@
         </is>
       </c>
       <c r="CD144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE144" t="n">
         <v>0</v>
       </c>
       <c r="CF144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG144" t="n">
         <v>0</v>
@@ -39160,10 +39160,10 @@
         <v>0</v>
       </c>
       <c r="CF145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH145" t="n">
         <v>0</v>
@@ -39423,10 +39423,10 @@
         <v>1</v>
       </c>
       <c r="CE146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG146" t="n">
         <v>0</v>
@@ -39686,10 +39686,10 @@
         </is>
       </c>
       <c r="CD147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF147" t="n">
         <v>0</v>
@@ -39952,13 +39952,13 @@
         </is>
       </c>
       <c r="CD148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE148" t="n">
         <v>0</v>
       </c>
       <c r="CF148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG148" t="n">
         <v>0</v>
@@ -40218,13 +40218,13 @@
         </is>
       </c>
       <c r="CD149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE149" t="n">
         <v>0</v>
       </c>
       <c r="CF149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG149" t="n">
         <v>0</v>
@@ -40490,10 +40490,10 @@
         <v>0</v>
       </c>
       <c r="CF150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH150" t="n">
         <v>0</v>
@@ -40756,10 +40756,10 @@
         <v>0</v>
       </c>
       <c r="CF151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH151" t="n">
         <v>0</v>
@@ -41551,13 +41551,13 @@
         <v>0</v>
       </c>
       <c r="CE154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF154" t="n">
         <v>0</v>
       </c>
       <c r="CG154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH154" t="n">
         <v>0</v>
@@ -42080,13 +42080,13 @@
         </is>
       </c>
       <c r="CD156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE156" t="n">
         <v>0</v>
       </c>
       <c r="CF156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG156" t="n">
         <v>0</v>
@@ -42346,13 +42346,13 @@
         </is>
       </c>
       <c r="CD157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE157" t="n">
         <v>0</v>
       </c>
       <c r="CF157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG157" t="n">
         <v>0</v>
@@ -42612,13 +42612,13 @@
         </is>
       </c>
       <c r="CD158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE158" t="n">
         <v>0</v>
       </c>
       <c r="CF158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG158" t="n">
         <v>0</v>
@@ -42878,13 +42878,13 @@
         </is>
       </c>
       <c r="CD159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE159" t="n">
         <v>0</v>
       </c>
       <c r="CF159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG159" t="n">
         <v>0</v>
@@ -43679,13 +43679,13 @@
         <v>0</v>
       </c>
       <c r="CE162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF162" t="n">
         <v>0</v>
       </c>
       <c r="CG162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH162" t="n">
         <v>0</v>
@@ -43945,13 +43945,13 @@
         <v>0</v>
       </c>
       <c r="CE163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF163" t="n">
         <v>0</v>
       </c>
       <c r="CG163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH163" t="n">
         <v>0</v>
@@ -44208,10 +44208,10 @@
         </is>
       </c>
       <c r="CD164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF164" t="n">
         <v>0</v>
@@ -44474,10 +44474,10 @@
         </is>
       </c>
       <c r="CD165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF165" t="n">
         <v>0</v>
@@ -45278,10 +45278,10 @@
         <v>0</v>
       </c>
       <c r="CF168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH168" t="n">
         <v>0</v>
@@ -45544,10 +45544,10 @@
         <v>0</v>
       </c>
       <c r="CF169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH169" t="n">
         <v>0</v>
@@ -45804,13 +45804,13 @@
         </is>
       </c>
       <c r="CD170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE170" t="n">
         <v>0</v>
       </c>
       <c r="CF170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG170" t="n">
         <v>0</v>
@@ -46070,13 +46070,13 @@
         </is>
       </c>
       <c r="CD171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE171" t="n">
         <v>0</v>
       </c>
       <c r="CF171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG171" t="n">
         <v>0</v>
@@ -46336,10 +46336,10 @@
         </is>
       </c>
       <c r="CD172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF172" t="n">
         <v>0</v>
@@ -46868,13 +46868,13 @@
         </is>
       </c>
       <c r="CD174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE174" t="n">
         <v>0</v>
       </c>
       <c r="CF174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG174" t="n">
         <v>0</v>
@@ -47134,13 +47134,13 @@
         </is>
       </c>
       <c r="CD175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE175" t="n">
         <v>0</v>
       </c>
       <c r="CF175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG175" t="n">
         <v>0</v>
@@ -47403,13 +47403,13 @@
         <v>0</v>
       </c>
       <c r="CE176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF176" t="n">
         <v>0</v>
       </c>
       <c r="CG176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH176" t="n">
         <v>0</v>
@@ -47669,13 +47669,13 @@
         <v>0</v>
       </c>
       <c r="CE177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF177" t="n">
         <v>0</v>
       </c>
       <c r="CG177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH177" t="n">
         <v>0</v>
@@ -47938,10 +47938,10 @@
         <v>0</v>
       </c>
       <c r="CF178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH178" t="n">
         <v>0</v>
@@ -48204,10 +48204,10 @@
         <v>0</v>
       </c>
       <c r="CF179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH179" t="n">
         <v>0</v>
@@ -48464,13 +48464,13 @@
         </is>
       </c>
       <c r="CD180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE180" t="n">
         <v>0</v>
       </c>
       <c r="CF180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG180" t="n">
         <v>0</v>
@@ -48730,13 +48730,13 @@
         </is>
       </c>
       <c r="CD181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE181" t="n">
         <v>0</v>
       </c>
       <c r="CF181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG181" t="n">
         <v>0</v>
@@ -48996,13 +48996,13 @@
         </is>
       </c>
       <c r="CD182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE182" t="n">
         <v>0</v>
       </c>
       <c r="CF182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG182" t="n">
         <v>0</v>
@@ -49262,13 +49262,13 @@
         </is>
       </c>
       <c r="CD183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE183" t="n">
         <v>0</v>
       </c>
       <c r="CF183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG183" t="n">
         <v>0</v>
@@ -50066,10 +50066,10 @@
         <v>0</v>
       </c>
       <c r="CF186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH186" t="n">
         <v>0</v>
@@ -50332,10 +50332,10 @@
         <v>0</v>
       </c>
       <c r="CF187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH187" t="n">
         <v>0</v>
@@ -50595,13 +50595,13 @@
         <v>0</v>
       </c>
       <c r="CE188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF188" t="n">
         <v>0</v>
       </c>
       <c r="CG188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH188" t="n">
         <v>0</v>
@@ -50861,13 +50861,13 @@
         <v>0</v>
       </c>
       <c r="CE189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF189" t="n">
         <v>0</v>
       </c>
       <c r="CG189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH189" t="n">
         <v>0</v>
@@ -51124,10 +51124,10 @@
         </is>
       </c>
       <c r="CD190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF190" t="n">
         <v>0</v>
@@ -51390,10 +51390,10 @@
         </is>
       </c>
       <c r="CD191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF191" t="n">
         <v>0</v>
@@ -51656,10 +51656,10 @@
         </is>
       </c>
       <c r="CD192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF192" t="n">
         <v>0</v>
@@ -51922,10 +51922,10 @@
         </is>
       </c>
       <c r="CD193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF193" t="n">
         <v>0</v>
@@ -52188,10 +52188,10 @@
         </is>
       </c>
       <c r="CD194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF194" t="n">
         <v>0</v>
@@ -52454,13 +52454,13 @@
         </is>
       </c>
       <c r="CD195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE195" t="n">
         <v>0</v>
       </c>
       <c r="CF195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG195" t="n">
         <v>0</v>
@@ -52726,10 +52726,10 @@
         <v>0</v>
       </c>
       <c r="CF196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH196" t="n">
         <v>0</v>
@@ -52992,10 +52992,10 @@
         <v>0</v>
       </c>
       <c r="CF197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH197" t="n">
         <v>0</v>
@@ -53255,13 +53255,13 @@
         <v>0</v>
       </c>
       <c r="CE198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF198" t="n">
         <v>0</v>
       </c>
       <c r="CG198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH198" t="n">
         <v>0</v>
@@ -53521,13 +53521,13 @@
         <v>0</v>
       </c>
       <c r="CE199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF199" t="n">
         <v>0</v>
       </c>
       <c r="CG199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH199" t="n">
         <v>0</v>
@@ -53787,13 +53787,13 @@
         <v>0</v>
       </c>
       <c r="CE200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF200" t="n">
         <v>0</v>
       </c>
       <c r="CG200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH200" t="n">
         <v>0</v>
@@ -54053,13 +54053,13 @@
         <v>0</v>
       </c>
       <c r="CE201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF201" t="n">
         <v>0</v>
       </c>
       <c r="CG201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH201" t="n">
         <v>0</v>
@@ -54319,13 +54319,13 @@
         <v>0</v>
       </c>
       <c r="CE202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF202" t="n">
         <v>0</v>
       </c>
       <c r="CG202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH202" t="n">
         <v>0</v>
@@ -54585,13 +54585,13 @@
         <v>0</v>
       </c>
       <c r="CE203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF203" t="n">
         <v>0</v>
       </c>
       <c r="CG203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH203" t="n">
         <v>0</v>
@@ -54848,13 +54848,13 @@
         </is>
       </c>
       <c r="CD204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE204" t="n">
         <v>0</v>
       </c>
       <c r="CF204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG204" t="n">
         <v>0</v>
@@ -55114,13 +55114,13 @@
         </is>
       </c>
       <c r="CD205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE205" t="n">
         <v>0</v>
       </c>
       <c r="CF205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG205" t="n">
         <v>0</v>
@@ -55915,10 +55915,10 @@
         <v>1</v>
       </c>
       <c r="CE208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG208" t="n">
         <v>0</v>
@@ -56178,13 +56178,13 @@
         </is>
       </c>
       <c r="CD209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE209" t="n">
         <v>0</v>
       </c>
       <c r="CF209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG209" t="n">
         <v>0</v>
@@ -56976,13 +56976,13 @@
         </is>
       </c>
       <c r="CD212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE212" t="n">
         <v>0</v>
       </c>
       <c r="CF212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG212" t="n">
         <v>0</v>
@@ -57242,10 +57242,10 @@
         </is>
       </c>
       <c r="CD213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF213" t="n">
         <v>0</v>
@@ -57514,10 +57514,10 @@
         <v>0</v>
       </c>
       <c r="CF214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH214" t="n">
         <v>0</v>
@@ -57780,10 +57780,10 @@
         <v>0</v>
       </c>
       <c r="CF215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH215" t="n">
         <v>0</v>
@@ -58040,10 +58040,10 @@
         </is>
       </c>
       <c r="CD216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF216" t="n">
         <v>0</v>
@@ -58306,13 +58306,13 @@
         </is>
       </c>
       <c r="CD217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE217" t="n">
         <v>0</v>
       </c>
       <c r="CF217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG217" t="n">
         <v>0</v>
@@ -58572,13 +58572,13 @@
         </is>
       </c>
       <c r="CD218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE218" t="n">
         <v>0</v>
       </c>
       <c r="CF218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG218" t="n">
         <v>0</v>
@@ -58844,10 +58844,10 @@
         <v>0</v>
       </c>
       <c r="CF219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH219" t="n">
         <v>0</v>
@@ -59104,10 +59104,10 @@
         </is>
       </c>
       <c r="CD220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF220" t="n">
         <v>0</v>
@@ -59639,13 +59639,13 @@
         <v>0</v>
       </c>
       <c r="CE222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF222" t="n">
         <v>0</v>
       </c>
       <c r="CG222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH222" t="n">
         <v>0</v>
@@ -59905,13 +59905,13 @@
         <v>0</v>
       </c>
       <c r="CE223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF223" t="n">
         <v>0</v>
       </c>
       <c r="CG223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH223" t="n">
         <v>0</v>
@@ -60171,13 +60171,13 @@
         <v>0</v>
       </c>
       <c r="CE224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF224" t="n">
         <v>0</v>
       </c>
       <c r="CG224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH224" t="n">
         <v>0</v>
@@ -60437,13 +60437,13 @@
         <v>0</v>
       </c>
       <c r="CE225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF225" t="n">
         <v>0</v>
       </c>
       <c r="CG225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH225" t="n">
         <v>0</v>
@@ -60700,10 +60700,10 @@
         </is>
       </c>
       <c r="CD226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF226" t="n">
         <v>0</v>
@@ -60966,10 +60966,10 @@
         </is>
       </c>
       <c r="CD227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF227" t="n">
         <v>0</v>
@@ -61235,13 +61235,13 @@
         <v>0</v>
       </c>
       <c r="CE228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF228" t="n">
         <v>0</v>
       </c>
       <c r="CG228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH228" t="n">
         <v>0</v>
@@ -61501,13 +61501,13 @@
         <v>0</v>
       </c>
       <c r="CE229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF229" t="n">
         <v>0</v>
       </c>
       <c r="CG229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH229" t="n">
         <v>0</v>
@@ -62302,10 +62302,10 @@
         <v>0</v>
       </c>
       <c r="CF232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH232" t="n">
         <v>0</v>
@@ -62568,10 +62568,10 @@
         <v>0</v>
       </c>
       <c r="CF233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH233" t="n">
         <v>0</v>
@@ -62828,13 +62828,13 @@
         </is>
       </c>
       <c r="CD234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE234" t="n">
         <v>0</v>
       </c>
       <c r="CF234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG234" t="n">
         <v>0</v>
@@ -63094,13 +63094,13 @@
         </is>
       </c>
       <c r="CD235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE235" t="n">
         <v>0</v>
       </c>
       <c r="CF235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG235" t="n">
         <v>0</v>
@@ -63366,10 +63366,10 @@
         <v>0</v>
       </c>
       <c r="CF236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH236" t="n">
         <v>0</v>
@@ -63626,13 +63626,13 @@
         </is>
       </c>
       <c r="CD237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE237" t="n">
         <v>0</v>
       </c>
       <c r="CF237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG237" t="n">
         <v>0</v>
@@ -63892,13 +63892,13 @@
         </is>
       </c>
       <c r="CD238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE238" t="n">
         <v>0</v>
       </c>
       <c r="CF238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG238" t="n">
         <v>0</v>
@@ -64158,13 +64158,13 @@
         </is>
       </c>
       <c r="CD239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE239" t="n">
         <v>0</v>
       </c>
       <c r="CF239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG239" t="n">
         <v>0</v>
@@ -64430,10 +64430,10 @@
         <v>0</v>
       </c>
       <c r="CF240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH240" t="n">
         <v>0</v>
@@ -64696,10 +64696,10 @@
         <v>0</v>
       </c>
       <c r="CF241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH241" t="n">
         <v>0</v>
@@ -64962,10 +64962,10 @@
         <v>0</v>
       </c>
       <c r="CF242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH242" t="n">
         <v>0</v>
@@ -65228,10 +65228,10 @@
         <v>0</v>
       </c>
       <c r="CF243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH243" t="n">
         <v>0</v>
@@ -66020,10 +66020,10 @@
         </is>
       </c>
       <c r="CD246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF246" t="n">
         <v>0</v>
@@ -66286,13 +66286,13 @@
         </is>
       </c>
       <c r="CD247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE247" t="n">
         <v>0</v>
       </c>
       <c r="CF247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG247" t="n">
         <v>0</v>
@@ -66552,10 +66552,10 @@
         </is>
       </c>
       <c r="CD248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF248" t="n">
         <v>0</v>
@@ -67087,13 +67087,13 @@
         <v>0</v>
       </c>
       <c r="CE250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF250" t="n">
         <v>0</v>
       </c>
       <c r="CG250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH250" t="n">
         <v>0</v>
@@ -67353,13 +67353,13 @@
         <v>0</v>
       </c>
       <c r="CE251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF251" t="n">
         <v>0</v>
       </c>
       <c r="CG251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH251" t="n">
         <v>0</v>
@@ -67882,10 +67882,10 @@
         </is>
       </c>
       <c r="CD253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF253" t="n">
         <v>0</v>
@@ -68148,10 +68148,10 @@
         </is>
       </c>
       <c r="CD254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF254" t="n">
         <v>0</v>
@@ -68686,10 +68686,10 @@
         <v>0</v>
       </c>
       <c r="CF256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH256" t="n">
         <v>0</v>
@@ -68952,10 +68952,10 @@
         <v>0</v>
       </c>
       <c r="CF257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH257" t="n">
         <v>0</v>
@@ -70013,13 +70013,13 @@
         <v>0</v>
       </c>
       <c r="CE261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF261" t="n">
         <v>0</v>
       </c>
       <c r="CG261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH261" t="n">
         <v>0</v>
@@ -70276,10 +70276,10 @@
         </is>
       </c>
       <c r="CD262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF262" t="n">
         <v>0</v>
@@ -70542,10 +70542,10 @@
         </is>
       </c>
       <c r="CD263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF263" t="n">
         <v>0</v>
@@ -70808,13 +70808,13 @@
         </is>
       </c>
       <c r="CD264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE264" t="n">
         <v>0</v>
       </c>
       <c r="CF264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG264" t="n">
         <v>0</v>
@@ -71074,13 +71074,13 @@
         </is>
       </c>
       <c r="CD265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE265" t="n">
         <v>0</v>
       </c>
       <c r="CF265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG265" t="n">
         <v>0</v>
@@ -71346,10 +71346,10 @@
         <v>0</v>
       </c>
       <c r="CF266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH266" t="n">
         <v>0</v>
@@ -71612,10 +71612,10 @@
         <v>0</v>
       </c>
       <c r="CF267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH267" t="n">
         <v>0</v>
@@ -72141,13 +72141,13 @@
         <v>0</v>
       </c>
       <c r="CE269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF269" t="n">
         <v>0</v>
       </c>
       <c r="CG269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH269" t="n">
         <v>0</v>
@@ -72404,13 +72404,13 @@
         </is>
       </c>
       <c r="CD270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE270" t="n">
         <v>0</v>
       </c>
       <c r="CF270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG270" t="n">
         <v>0</v>
@@ -72670,10 +72670,10 @@
         </is>
       </c>
       <c r="CD271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF271" t="n">
         <v>0</v>
@@ -72936,10 +72936,10 @@
         </is>
       </c>
       <c r="CD272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF272" t="n">
         <v>0</v>
@@ -73202,10 +73202,10 @@
         </is>
       </c>
       <c r="CD273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF273" t="n">
         <v>0</v>
